--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_9_33.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_9_33.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2771397.423708757</v>
+        <v>2880538.677268883</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12383593.4843585</v>
+        <v>12134429.06144739</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283182</v>
+        <v>416855.1052283184</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8749155.053341221</v>
+        <v>8771601.928823244</v>
       </c>
     </row>
     <row r="11">
@@ -668,16 +670,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>269.976817035143</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>411.547702772954</v>
+        <v>412.2877386950441</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,13 +709,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>140.3157839734243</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>209.8976922291835</v>
       </c>
       <c r="U2" t="n">
-        <v>251.045250128462</v>
+        <v>251.1044530022292</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -722,7 +724,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>29.09810222479049</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -750,13 +752,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>135.3343964518635</v>
+        <v>135.7303505775365</v>
       </c>
       <c r="H3" t="n">
-        <v>92.83156789269626</v>
+        <v>96.65565115906503</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705013</v>
+        <v>33.85559031833751</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -786,13 +788,13 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>134.3646350838588</v>
+        <v>141.7193093041457</v>
       </c>
       <c r="T3" t="n">
-        <v>192.0665623188214</v>
+        <v>193.6625353078282</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8092030868072</v>
+        <v>225.8352527003384</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -814,28 +816,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>133.8429293163431</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>61.38071183948978</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>114.7793764994864</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -868,22 +870,22 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>286.245260737819</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -893,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>319.9685143213788</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -908,10 +910,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>411.547702772954</v>
+        <v>411.5250233818693</v>
       </c>
       <c r="H5" t="n">
-        <v>301.0185525624054</v>
+        <v>300.7862872484598</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -944,13 +946,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -959,7 +961,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>81.45965449117409</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -987,13 +989,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>135.3343964518635</v>
+        <v>135.3222619078506</v>
       </c>
       <c r="H6" t="n">
-        <v>92.83156789269626</v>
+        <v>92.71437374394026</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705012</v>
+        <v>19.80516901555393</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1023,13 +1025,13 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>134.3646350838588</v>
+        <v>134.1392412509879</v>
       </c>
       <c r="T6" t="n">
-        <v>192.0665623188214</v>
+        <v>192.01765159098</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8092030868072</v>
+        <v>225.8084047615432</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -1054,25 +1056,25 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>135.5840025774502</v>
+        <v>25.65551374536124</v>
       </c>
       <c r="G7" t="n">
-        <v>166.3066000448042</v>
+        <v>166.2964268507295</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>147.161060211447</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>104.4906595130011</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,16 +1101,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>101.1001486205444</v>
       </c>
       <c r="S7" t="n">
-        <v>194.6624603617375</v>
+        <v>194.4851693340911</v>
       </c>
       <c r="T7" t="n">
-        <v>220.7486959972119</v>
+        <v>220.7052287134384</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -1120,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1133,22 +1135,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>207.1299691687015</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>11.54770277295399</v>
+        <v>411.5250233818693</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>117.4603175070422</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1184,19 +1186,19 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>206.5589059457607</v>
       </c>
       <c r="U8" t="n">
-        <v>251.045250128462</v>
+        <v>251.0434357771752</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1224,13 +1226,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>135.3343964518635</v>
+        <v>135.3222619078506</v>
       </c>
       <c r="H9" t="n">
-        <v>92.83156789269626</v>
+        <v>92.71437374394026</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705013</v>
+        <v>19.80516901555394</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1260,13 +1262,13 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>134.3646350838588</v>
+        <v>134.1392412509879</v>
       </c>
       <c r="T9" t="n">
-        <v>192.0665623188214</v>
+        <v>192.01765159098</v>
       </c>
       <c r="U9" t="n">
-        <v>225.8092030868072</v>
+        <v>225.8084047615432</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -1291,7 +1293,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1303,13 +1305,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3066000448042</v>
+        <v>166.2964268507295</v>
       </c>
       <c r="H10" t="n">
-        <v>10.10423716751931</v>
+        <v>147.161060211447</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>104.4906595130011</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,22 +1338,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195736</v>
+        <v>101.1001486205444</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.4851693340911</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7486959972119</v>
+        <v>220.7052287134384</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>279.974667440832</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1370,13 +1372,13 @@
         <v>382.7338416634803</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1418,16 +1420,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695521</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881285</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1436,7 +1438,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1531,22 +1533,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>102.1557845699813</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1585,10 +1587,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>26.07046444232094</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1673,7 +1675,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="15">
@@ -1765,10 +1767,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -1810,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>55.83068150864422</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1822,16 +1824,16 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>106.7475924760369</v>
       </c>
     </row>
     <row r="17">
@@ -1841,16 +1843,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -1892,16 +1894,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569552</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -1910,7 +1912,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -2011,16 +2013,16 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>21.90286287505422</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2081,13 +2083,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -2096,7 +2098,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444135</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,16 +2131,16 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569552</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881285</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701341</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2147,7 +2149,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2242,13 +2244,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>74.41917683133158</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
@@ -2257,7 +2259,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2293,7 +2295,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>146.7151441592111</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2305,7 +2307,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2366,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2479,22 +2481,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>160.428800290701</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>36.43062059490515</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2542,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2561,7 +2563,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
@@ -2603,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2713,25 +2715,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>27.02919805176109</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2776,10 +2778,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>213.6019919131843</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2840,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2947,19 +2949,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>126.8024622972524</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -2968,7 +2970,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3010,10 +3012,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>165.1666147997983</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3086,7 +3088,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -3184,13 +3186,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>176.2997404547446</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -3202,7 +3204,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>30.87238256912024</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856552</v>
@@ -3238,16 +3240,16 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3421,19 +3423,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
@@ -3442,7 +3444,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>9.146142788179874</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3481,13 +3483,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>78.71385496658263</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3557,7 +3559,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3664,13 +3666,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
@@ -3679,7 +3681,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>9.146142788180832</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,16 +3708,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>71.05846343488149</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3755,7 +3757,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444141</v>
+        <v>283.1540821444144</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3895,10 +3897,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>36.85665993310037</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -3943,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -3961,10 +3963,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>60.19827945150398</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -4043,7 +4045,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.237938656054</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -4141,19 +4143,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>99.97427419833859</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>14.53306611597401</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4195,10 +4197,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1110.088185601309</v>
+        <v>879.2380214205527</v>
       </c>
       <c r="C2" t="n">
-        <v>1110.088185601309</v>
+        <v>879.2380214205527</v>
       </c>
       <c r="D2" t="n">
-        <v>1110.088185601309</v>
+        <v>879.2380214205527</v>
       </c>
       <c r="E2" t="n">
-        <v>1110.088185601309</v>
+        <v>879.2380214205527</v>
       </c>
       <c r="F2" t="n">
-        <v>837.3843300102556</v>
+        <v>468.2521166309451</v>
       </c>
       <c r="G2" t="n">
-        <v>421.6795797345444</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="H2" t="n">
-        <v>117.6204357321147</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="I2" t="n">
-        <v>51.24678656800311</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362819</v>
+        <v>293.3053724073753</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816082</v>
+        <v>455.1003844723691</v>
       </c>
       <c r="L2" t="n">
-        <v>795.755353087291</v>
+        <v>692.7231656905592</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923561</v>
+        <v>988.79373224816</v>
       </c>
       <c r="N2" t="n">
-        <v>1656.671415230817</v>
+        <v>1294.268838483743</v>
       </c>
       <c r="O2" t="n">
-        <v>2055.22848474084</v>
+        <v>1935.292048103637</v>
       </c>
       <c r="P2" t="n">
-        <v>2360.886721764997</v>
+        <v>2238.426880394156</v>
       </c>
       <c r="Q2" t="n">
-        <v>2542.25058172385</v>
+        <v>2550.866182466516</v>
       </c>
       <c r="R2" t="n">
-        <v>2562.339328400155</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="S2" t="n">
-        <v>2437.640120926626</v>
+        <v>2448.259651016315</v>
       </c>
       <c r="T2" t="n">
-        <v>2437.640120926626</v>
+        <v>2236.241780077746</v>
       </c>
       <c r="U2" t="n">
-        <v>2184.059060190806</v>
+        <v>1982.600918459333</v>
       </c>
       <c r="V2" t="n">
-        <v>1852.996172847235</v>
+        <v>1651.538031115762</v>
       </c>
       <c r="W2" t="n">
-        <v>1500.227517577121</v>
+        <v>1298.769375845648</v>
       </c>
       <c r="X2" t="n">
-        <v>1500.227517577121</v>
+        <v>1269.377353396364</v>
       </c>
       <c r="Y2" t="n">
-        <v>1110.088185601309</v>
+        <v>879.2380214205527</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966384</v>
+        <v>949.890208309364</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155114</v>
+        <v>775.437179028237</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542603</v>
+        <v>626.5027693669858</v>
       </c>
       <c r="E3" t="n">
-        <v>448.6792471488047</v>
+        <v>467.2653143615303</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756898</v>
+        <v>320.7307563884153</v>
       </c>
       <c r="G3" t="n">
-        <v>165.443278618252</v>
+        <v>183.6293921686809</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057901</v>
+        <v>85.99742130093843</v>
       </c>
       <c r="I3" t="n">
-        <v>51.24678656800311</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="J3" t="n">
-        <v>238.4273302370161</v>
+        <v>201.9455071369548</v>
       </c>
       <c r="K3" t="n">
-        <v>423.148951518066</v>
+        <v>323.3685994072329</v>
       </c>
       <c r="L3" t="n">
-        <v>717.8525085495378</v>
+        <v>900.091414510487</v>
       </c>
       <c r="M3" t="n">
-        <v>1352.031492328576</v>
+        <v>1164.030946005973</v>
       </c>
       <c r="N3" t="n">
-        <v>1739.316620925521</v>
+        <v>1449.364816439304</v>
       </c>
       <c r="O3" t="n">
-        <v>2199.840679460312</v>
+        <v>2078.093464274724</v>
       </c>
       <c r="P3" t="n">
-        <v>2447.023413292609</v>
+        <v>2316.738101020796</v>
       </c>
       <c r="Q3" t="n">
-        <v>2562.339328400155</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="R3" t="n">
-        <v>2562.339328400155</v>
+        <v>2589.992766140987</v>
       </c>
       <c r="S3" t="n">
-        <v>2426.617474780096</v>
+        <v>2446.841948662051</v>
       </c>
       <c r="T3" t="n">
-        <v>2232.610846175226</v>
+        <v>2251.223226128892</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047138</v>
+        <v>2023.106809259863</v>
       </c>
       <c r="V3" t="n">
-        <v>1769.368633815395</v>
+        <v>1787.954701028121</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087193</v>
+        <v>1533.717344299919</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.27977688166</v>
+        <v>1325.865844094386</v>
       </c>
       <c r="Y3" t="n">
-        <v>1099.519478116707</v>
+        <v>1118.105545329432</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>653.2836669058703</v>
+        <v>546.5886150038027</v>
       </c>
       <c r="C4" t="n">
-        <v>653.2836669058703</v>
+        <v>377.6524320758958</v>
       </c>
       <c r="D4" t="n">
-        <v>503.1670274935345</v>
+        <v>377.6524320758958</v>
       </c>
       <c r="E4" t="n">
-        <v>503.1670274935345</v>
+        <v>229.7393384935027</v>
       </c>
       <c r="F4" t="n">
-        <v>367.9721493962183</v>
+        <v>229.7393384935027</v>
       </c>
       <c r="G4" t="n">
-        <v>199.9856847044969</v>
+        <v>167.7386194637151</v>
       </c>
       <c r="H4" t="n">
-        <v>51.24678656800311</v>
+        <v>167.7386194637151</v>
       </c>
       <c r="I4" t="n">
-        <v>51.24678656800311</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312199</v>
+        <v>54.03452733018376</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020475</v>
+        <v>187.5436166159864</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693234</v>
+        <v>413.9157199341299</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096587</v>
+        <v>662.9824862666695</v>
       </c>
       <c r="N4" t="n">
-        <v>1123.088724245823</v>
+        <v>911.5616180092698</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999035</v>
+        <v>1125.148384357424</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171024</v>
+        <v>1284.388078993468</v>
       </c>
       <c r="Q4" t="n">
-        <v>1636.446120074497</v>
+        <v>1311.202309361118</v>
       </c>
       <c r="R4" t="n">
-        <v>1636.446120074497</v>
+        <v>1311.202309361118</v>
       </c>
       <c r="S4" t="n">
-        <v>1636.446120074497</v>
+        <v>1311.202309361118</v>
       </c>
       <c r="T4" t="n">
-        <v>1413.467639269233</v>
+        <v>1311.202309361118</v>
       </c>
       <c r="U4" t="n">
-        <v>1124.349301773071</v>
+        <v>1022.06568235322</v>
       </c>
       <c r="V4" t="n">
-        <v>1124.349301773071</v>
+        <v>767.3811941473328</v>
       </c>
       <c r="W4" t="n">
-        <v>834.93213173611</v>
+        <v>767.3811941473328</v>
       </c>
       <c r="X4" t="n">
-        <v>834.93213173611</v>
+        <v>767.3811941473328</v>
       </c>
       <c r="Y4" t="n">
-        <v>834.93213173611</v>
+        <v>546.5886150038027</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1540.262284242502</v>
+        <v>1540.557833093248</v>
       </c>
       <c r="C5" t="n">
-        <v>1540.262284242502</v>
+        <v>1540.557833093248</v>
       </c>
       <c r="D5" t="n">
-        <v>1181.996585635751</v>
+        <v>1182.292134486497</v>
       </c>
       <c r="E5" t="n">
-        <v>1181.996585635751</v>
+        <v>1182.292134486497</v>
       </c>
       <c r="F5" t="n">
-        <v>771.0106808461439</v>
+        <v>771.3062296968895</v>
       </c>
       <c r="G5" t="n">
-        <v>355.3059305704328</v>
+        <v>355.6243878970215</v>
       </c>
       <c r="H5" t="n">
-        <v>51.24678656800311</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="I5" t="n">
-        <v>51.24678656800311</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362819</v>
+        <v>189.986887110478</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816084</v>
+        <v>447.831944713551</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872915</v>
+        <v>804.6133007477383</v>
       </c>
       <c r="M5" t="n">
-        <v>1220.470313923562</v>
+        <v>1233.270741187502</v>
       </c>
       <c r="N5" t="n">
-        <v>1656.671415230817</v>
+        <v>1673.478115539971</v>
       </c>
       <c r="O5" t="n">
-        <v>2055.22848474084</v>
+        <v>2075.818195082062</v>
       </c>
       <c r="P5" t="n">
-        <v>2360.886721764997</v>
+        <v>2384.705143645558</v>
       </c>
       <c r="Q5" t="n">
-        <v>2542.25058172385</v>
+        <v>2568.493631507462</v>
       </c>
       <c r="R5" t="n">
-        <v>2562.339328400155</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="S5" t="n">
-        <v>2437.640120926626</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="T5" t="n">
-        <v>2228.894479532451</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="U5" t="n">
-        <v>1975.31341879663</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="V5" t="n">
-        <v>1975.31341879663</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="W5" t="n">
-        <v>1622.544763526516</v>
+        <v>2237.224110870872</v>
       </c>
       <c r="X5" t="n">
-        <v>1540.262284242502</v>
+        <v>1863.758352609792</v>
       </c>
       <c r="Y5" t="n">
-        <v>1540.262284242502</v>
+        <v>1863.758352609792</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966385</v>
+        <v>931.3045644835107</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155116</v>
+        <v>756.8515352023837</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9171255411325</v>
       </c>
       <c r="E6" t="n">
-        <v>448.6792471488048</v>
+        <v>448.679670535677</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756898</v>
+        <v>302.145112562562</v>
       </c>
       <c r="G6" t="n">
-        <v>165.443278618252</v>
+        <v>165.4559591202886</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057899</v>
+        <v>71.80507655065198</v>
       </c>
       <c r="I6" t="n">
-        <v>51.24678656800311</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="J6" t="n">
-        <v>113.5972052500114</v>
+        <v>115.2852578226161</v>
       </c>
       <c r="K6" t="n">
-        <v>298.3188265310614</v>
+        <v>563.7673318682816</v>
       </c>
       <c r="L6" t="n">
-        <v>870.3292415458916</v>
+        <v>861.0792809845964</v>
       </c>
       <c r="M6" t="n">
-        <v>1233.591260505112</v>
+        <v>1470.397510810264</v>
       </c>
       <c r="N6" t="n">
-        <v>1867.77024428415</v>
+        <v>1860.807072136007</v>
       </c>
       <c r="O6" t="n">
-        <v>2199.840679460312</v>
+        <v>2195.735752851538</v>
       </c>
       <c r="P6" t="n">
-        <v>2447.023413292609</v>
+        <v>2445.212480716556</v>
       </c>
       <c r="Q6" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.061870084021</v>
       </c>
       <c r="R6" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.061870084021</v>
       </c>
       <c r="S6" t="n">
-        <v>2426.617474780096</v>
+        <v>2426.567687002215</v>
       </c>
       <c r="T6" t="n">
-        <v>2232.610846175226</v>
+        <v>2232.610463172942</v>
       </c>
       <c r="U6" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.52116543401</v>
       </c>
       <c r="V6" t="n">
-        <v>1769.368633815395</v>
+        <v>1769.369057202267</v>
       </c>
       <c r="W6" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131700474065</v>
       </c>
       <c r="X6" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.280200268533</v>
       </c>
       <c r="Y6" t="n">
-        <v>1099.519478116707</v>
+        <v>1099.519901503579</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>673.036065727045</v>
+        <v>650.0010001094372</v>
       </c>
       <c r="C7" t="n">
-        <v>504.0998827991381</v>
+        <v>650.0010001094372</v>
       </c>
       <c r="D7" t="n">
-        <v>504.0998827991381</v>
+        <v>499.8843606971014</v>
       </c>
       <c r="E7" t="n">
-        <v>356.186789216745</v>
+        <v>499.8843606971014</v>
       </c>
       <c r="F7" t="n">
-        <v>219.2332512597245</v>
+        <v>473.9697003482517</v>
       </c>
       <c r="G7" t="n">
-        <v>51.24678656800311</v>
+        <v>305.9935116101411</v>
       </c>
       <c r="H7" t="n">
-        <v>51.24678656800311</v>
+        <v>157.3459760430229</v>
       </c>
       <c r="I7" t="n">
-        <v>51.24678656800311</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="J7" t="n">
-        <v>76.715959553122</v>
+        <v>77.9810806808055</v>
       </c>
       <c r="K7" t="n">
-        <v>248.4064713020476</v>
+        <v>250.8417132121972</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693235</v>
+        <v>527.5702436225445</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096588</v>
+        <v>829.7308018317423</v>
       </c>
       <c r="N7" t="n">
-        <v>1123.088724245823</v>
+        <v>1130.141273750634</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999035</v>
+        <v>1391.602671897099</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171024</v>
+        <v>1591.807384634811</v>
       </c>
       <c r="Q7" t="n">
-        <v>1636.446120074497</v>
+        <v>1646.983670153878</v>
       </c>
       <c r="R7" t="n">
-        <v>1636.446120074497</v>
+        <v>1544.862307910904</v>
       </c>
       <c r="S7" t="n">
-        <v>1439.817372234359</v>
+        <v>1348.412641916873</v>
       </c>
       <c r="T7" t="n">
-        <v>1216.838891429094</v>
+        <v>1125.478067458854</v>
       </c>
       <c r="U7" t="n">
-        <v>927.7205539329318</v>
+        <v>1125.478067458854</v>
       </c>
       <c r="V7" t="n">
-        <v>673.036065727045</v>
+        <v>870.7935792529673</v>
       </c>
       <c r="W7" t="n">
-        <v>673.036065727045</v>
+        <v>870.7935792529673</v>
       </c>
       <c r="X7" t="n">
-        <v>673.036065727045</v>
+        <v>870.7935792529673</v>
       </c>
       <c r="Y7" t="n">
-        <v>673.036065727045</v>
+        <v>650.0010001094372</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>987.178372674844</v>
+        <v>1741.168338477939</v>
       </c>
       <c r="C8" t="n">
-        <v>777.9561815953475</v>
+        <v>1741.168338477939</v>
       </c>
       <c r="D8" t="n">
-        <v>777.9561815953475</v>
+        <v>1382.902639871188</v>
       </c>
       <c r="E8" t="n">
-        <v>777.9561815953475</v>
+        <v>997.114387272944</v>
       </c>
       <c r="F8" t="n">
-        <v>366.9702768057399</v>
+        <v>586.1284824833365</v>
       </c>
       <c r="G8" t="n">
-        <v>355.3059305704328</v>
+        <v>170.4466406834684</v>
       </c>
       <c r="H8" t="n">
-        <v>51.24678656800311</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="I8" t="n">
-        <v>51.24678656800311</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362817</v>
+        <v>189.9868871104791</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816081</v>
+        <v>447.8319447135523</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872915</v>
+        <v>804.6133007477401</v>
       </c>
       <c r="M8" t="n">
-        <v>1220.470313923562</v>
+        <v>1233.270741187504</v>
       </c>
       <c r="N8" t="n">
-        <v>1656.671415230817</v>
+        <v>1673.478115539973</v>
       </c>
       <c r="O8" t="n">
-        <v>2055.22848474084</v>
+        <v>2075.818195082063</v>
       </c>
       <c r="P8" t="n">
-        <v>2360.886721764997</v>
+        <v>2384.705143645558</v>
       </c>
       <c r="Q8" t="n">
-        <v>2542.25058172385</v>
+        <v>2568.493631507462</v>
       </c>
       <c r="R8" t="n">
-        <v>2562.339328400155</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="S8" t="n">
-        <v>2562.339328400155</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="T8" t="n">
-        <v>2353.59368700598</v>
+        <v>2381.347406599813</v>
       </c>
       <c r="U8" t="n">
-        <v>2100.01262627016</v>
+        <v>2127.76817854206</v>
       </c>
       <c r="V8" t="n">
-        <v>2100.01262627016</v>
+        <v>2127.76817854206</v>
       </c>
       <c r="W8" t="n">
-        <v>1747.243971000046</v>
+        <v>2127.76817854206</v>
       </c>
       <c r="X8" t="n">
-        <v>1373.778212738966</v>
+        <v>2127.76817854206</v>
       </c>
       <c r="Y8" t="n">
-        <v>1373.778212738966</v>
+        <v>2127.76817854206</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3045644835107</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8515352023837</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9171255411325</v>
       </c>
       <c r="E9" t="n">
-        <v>448.679247148805</v>
+        <v>448.679670535677</v>
       </c>
       <c r="F9" t="n">
-        <v>302.14468917569</v>
+        <v>302.145112562562</v>
       </c>
       <c r="G9" t="n">
-        <v>165.4432786182524</v>
+        <v>165.4559591202886</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057915</v>
+        <v>71.80507655065199</v>
       </c>
       <c r="I9" t="n">
-        <v>51.24678656800311</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="J9" t="n">
-        <v>113.5972052500114</v>
+        <v>115.2852578226161</v>
       </c>
       <c r="K9" t="n">
-        <v>298.3188265310613</v>
+        <v>301.9467472258287</v>
       </c>
       <c r="L9" t="n">
-        <v>801.9449557744476</v>
+        <v>599.2586963421434</v>
       </c>
       <c r="M9" t="n">
-        <v>1165.206974733668</v>
+        <v>1240.281905962037</v>
       </c>
       <c r="N9" t="n">
-        <v>1552.492103330613</v>
+        <v>1860.807072136007</v>
       </c>
       <c r="O9" t="n">
-        <v>1884.562538506775</v>
+        <v>2195.735752851538</v>
       </c>
       <c r="P9" t="n">
-        <v>2447.023413292609</v>
+        <v>2445.212480716556</v>
       </c>
       <c r="Q9" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.061870084021</v>
       </c>
       <c r="R9" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.061870084021</v>
       </c>
       <c r="S9" t="n">
-        <v>2426.617474780096</v>
+        <v>2426.567687002215</v>
       </c>
       <c r="T9" t="n">
-        <v>2232.610846175226</v>
+        <v>2232.610463172942</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.52116543401</v>
       </c>
       <c r="V9" t="n">
-        <v>1769.368633815395</v>
+        <v>1769.369057202267</v>
       </c>
       <c r="W9" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131700474065</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.280200268533</v>
       </c>
       <c r="Y9" t="n">
-        <v>1099.519478116707</v>
+        <v>1099.519901503579</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>546.2888279392359</v>
+        <v>621.8827939306448</v>
       </c>
       <c r="C10" t="n">
-        <v>377.3526450113291</v>
+        <v>621.8827939306448</v>
       </c>
       <c r="D10" t="n">
-        <v>377.3526450113291</v>
+        <v>621.8827939306448</v>
       </c>
       <c r="E10" t="n">
-        <v>229.4395514289359</v>
+        <v>473.9697003482517</v>
       </c>
       <c r="F10" t="n">
-        <v>229.4395514289359</v>
+        <v>473.9697003482517</v>
       </c>
       <c r="G10" t="n">
-        <v>61.45308673721453</v>
+        <v>305.9935116101411</v>
       </c>
       <c r="H10" t="n">
-        <v>51.24678656800311</v>
+        <v>157.3459760430229</v>
       </c>
       <c r="I10" t="n">
-        <v>51.24678656800311</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312199</v>
+        <v>77.98108068080549</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020475</v>
+        <v>250.8417132121972</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693234</v>
+        <v>527.5702436225444</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096587</v>
+        <v>829.7308018317422</v>
       </c>
       <c r="N10" t="n">
-        <v>1123.088724245823</v>
+        <v>1130.141273750633</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999035</v>
+        <v>1391.602671897099</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171024</v>
+        <v>1591.80738463481</v>
       </c>
       <c r="Q10" t="n">
-        <v>1636.446120074497</v>
+        <v>1646.983670153878</v>
       </c>
       <c r="R10" t="n">
-        <v>1533.86271359008</v>
+        <v>1544.862307910904</v>
       </c>
       <c r="S10" t="n">
-        <v>1533.86271359008</v>
+        <v>1348.412641916872</v>
       </c>
       <c r="T10" t="n">
-        <v>1310.884232784815</v>
+        <v>1125.478067458854</v>
       </c>
       <c r="U10" t="n">
-        <v>1021.765895288653</v>
+        <v>1125.478067458854</v>
       </c>
       <c r="V10" t="n">
-        <v>767.0814070827661</v>
+        <v>1125.478067458854</v>
       </c>
       <c r="W10" t="n">
-        <v>767.0814070827661</v>
+        <v>842.6753730741749</v>
       </c>
       <c r="X10" t="n">
-        <v>767.0814070827661</v>
+        <v>842.6753730741749</v>
       </c>
       <c r="Y10" t="n">
-        <v>546.2888279392359</v>
+        <v>621.8827939306448</v>
       </c>
     </row>
     <row r="11">
@@ -5030,16 +5032,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K11" t="n">
         <v>852.8523611075809</v>
@@ -5048,13 +5050,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
@@ -5115,31 +5117,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>429.5088224239596</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>924.8344286397182</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>949.9304447718133</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N12" t="n">
-        <v>1577.52840832642</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O12" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400712</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C13" t="n">
-        <v>344.9174178121643</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D13" t="n">
-        <v>344.9174178121643</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E13" t="n">
-        <v>197.0043242297712</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F13" t="n">
-        <v>197.0043242297712</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G13" t="n">
-        <v>197.0043242297712</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138411</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703109</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="14">
@@ -5252,34 +5254,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
         <v>378.1925803111716</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332386</v>
@@ -5288,7 +5290,7 @@
         <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
         <v>3640.422291068009</v>
@@ -5309,19 +5311,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5355,28 +5357,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L15" t="n">
-        <v>589.1422692637307</v>
+        <v>634.5603720565524</v>
       </c>
       <c r="M15" t="n">
-        <v>1186.520756890282</v>
+        <v>1231.938859683104</v>
       </c>
       <c r="N15" t="n">
-        <v>1814.118720444889</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O15" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,10 +5412,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>929.7309773356194</v>
+        <v>948.5505208511905</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356194</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="D16" t="n">
         <v>779.6143379232836</v>
@@ -5458,28 +5460,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S16" t="n">
-        <v>2323.522752046154</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>2103.921287069095</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U16" t="n">
-        <v>1814.846060413293</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V16" t="n">
-        <v>1560.161572207406</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="W16" t="n">
-        <v>1560.161572207406</v>
+        <v>1466.014387565343</v>
       </c>
       <c r="X16" t="n">
-        <v>1332.172021309389</v>
+        <v>1238.024836667326</v>
       </c>
       <c r="Y16" t="n">
-        <v>1111.379442165859</v>
+        <v>1130.19898568143</v>
       </c>
     </row>
     <row r="17">
@@ -5501,19 +5503,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192503</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K17" t="n">
         <v>852.8523611075798</v>
@@ -5525,28 +5527,28 @@
         <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
         <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
         <v>3820.749612123002</v>
@@ -5586,28 +5588,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J18" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>95.58405025273903</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L18" t="n">
-        <v>95.58405025273903</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>692.9625378792909</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1320.560501433898</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O18" t="n">
-        <v>1872.470231673185</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
         <v>2283.159972732779</v>
@@ -5659,22 +5661,22 @@
         <v>344.9174178121648</v>
       </c>
       <c r="F19" t="n">
-        <v>198.0274703142544</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G19" t="n">
-        <v>198.0274703142544</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
         <v>826.1405381797747</v>
@@ -5741,58 +5743,58 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068008</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
         <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5823,34 +5825,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>562.8579153358619</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>1058.183521551621</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1655.562009178173</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N21" t="n">
-        <v>2283.159972732779</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O21" t="n">
-        <v>2283.159972732779</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3267.591475357736</v>
+        <v>721.7774158311365</v>
       </c>
       <c r="C22" t="n">
-        <v>3098.655292429829</v>
+        <v>552.8412329032296</v>
       </c>
       <c r="D22" t="n">
-        <v>3023.484406741615</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E22" t="n">
-        <v>2875.571313159222</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F22" t="n">
-        <v>2728.681365661312</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G22" t="n">
-        <v>2561.485266376192</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>2419.77343521839</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>2337.686731866303</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>2417.922750296627</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>2679.612012822166</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>3070.010606998106</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
-        <v>3492.020309729141</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>3909.430181389149</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>4278.959462098134</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>4571.634917671693</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>4623.787448650995</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>4440.932614305899</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T22" t="n">
-        <v>4221.33114932884</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U22" t="n">
-        <v>4221.33114932884</v>
+        <v>1896.309668945771</v>
       </c>
       <c r="V22" t="n">
-        <v>3966.646661122953</v>
+        <v>1641.625180739884</v>
       </c>
       <c r="W22" t="n">
-        <v>3677.229491085993</v>
+        <v>1352.208010702924</v>
       </c>
       <c r="X22" t="n">
-        <v>3449.239940187976</v>
+        <v>1124.218459804906</v>
       </c>
       <c r="Y22" t="n">
-        <v>3449.239940187976</v>
+        <v>903.4258806613763</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362672</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797045</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192456</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111692</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075785</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332385</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068008</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="24">
@@ -6060,31 +6062,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>1307.627092998424</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q24" t="n">
         <v>2516.421633107662</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>726.955532171245</v>
+        <v>801.6918836311989</v>
       </c>
       <c r="C25" t="n">
-        <v>558.0193492433381</v>
+        <v>632.7557007032921</v>
       </c>
       <c r="D25" t="n">
-        <v>407.9027098310023</v>
+        <v>632.7557007032921</v>
       </c>
       <c r="E25" t="n">
-        <v>407.9027098310023</v>
+        <v>484.8426071208989</v>
       </c>
       <c r="F25" t="n">
-        <v>261.0127623330919</v>
+        <v>337.9526596229886</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2410.164476918741</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>2410.164476918741</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T25" t="n">
-        <v>2190.563011941682</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U25" t="n">
-        <v>1901.48778528588</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V25" t="n">
-        <v>1646.803297079993</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W25" t="n">
-        <v>1357.386127043032</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X25" t="n">
-        <v>1129.396576145015</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y25" t="n">
-        <v>908.6039970014847</v>
+        <v>983.3403484614387</v>
       </c>
     </row>
     <row r="26">
@@ -6206,13 +6208,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
@@ -6221,25 +6223,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6300,31 +6302,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>95.58405025273905</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>429.5088224239596</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>924.8344286397185</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>1522.21291626627</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>1522.21291626627</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O27" t="n">
-        <v>2074.122646505557</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>929.7309773356194</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>929.7309773356194</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>779.6143379232836</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E28" t="n">
-        <v>631.7012443408905</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1327.139029956954</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1111.379442165859</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>1111.379442165859</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6437,46 +6439,46 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6494,19 +6496,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6537,31 +6539,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>427.7414352191925</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L30" t="n">
-        <v>923.0670414349513</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M30" t="n">
-        <v>1520.445529061503</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="N30" t="n">
-        <v>1520.445529061503</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O30" t="n">
-        <v>2072.35525930079</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2495.978408795859</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3006.417838136243</v>
+        <v>931.4710609784063</v>
       </c>
       <c r="C31" t="n">
-        <v>2837.481655208336</v>
+        <v>762.5348780504994</v>
       </c>
       <c r="D31" t="n">
-        <v>2709.398359958586</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E31" t="n">
-        <v>2561.485266376193</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F31" t="n">
-        <v>2561.485266376193</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G31" t="n">
-        <v>2561.485266376193</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H31" t="n">
-        <v>2419.773435218391</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>4507.978318053498</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T31" t="n">
-        <v>4288.376853076439</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U31" t="n">
-        <v>3999.301626420637</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V31" t="n">
-        <v>3744.61713821475</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W31" t="n">
-        <v>3455.19996817779</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="X31" t="n">
-        <v>3227.210417279773</v>
+        <v>1333.912104952176</v>
       </c>
       <c r="Y31" t="n">
-        <v>3006.417838136243</v>
+        <v>1113.119525808646</v>
       </c>
     </row>
     <row r="32">
@@ -6719,7 +6721,7 @@
         <v>4194.413870694708</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6734,13 +6736,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6774,31 +6776,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>95.58405025273905</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>95.58405025273905</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>590.9096564684978</v>
+        <v>1058.183521551621</v>
       </c>
       <c r="M33" t="n">
-        <v>1188.28814409505</v>
+        <v>1655.562009178173</v>
       </c>
       <c r="N33" t="n">
-        <v>1815.886107649656</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="O33" t="n">
-        <v>2367.795837888943</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>806.8386896933887</v>
+        <v>988.1395539230176</v>
       </c>
       <c r="C34" t="n">
-        <v>637.9025067654818</v>
+        <v>819.2033709951107</v>
       </c>
       <c r="D34" t="n">
-        <v>637.9025067654818</v>
+        <v>669.086731582775</v>
       </c>
       <c r="E34" t="n">
-        <v>489.9894131830887</v>
+        <v>521.1736380003819</v>
       </c>
       <c r="F34" t="n">
-        <v>343.0994656851783</v>
+        <v>374.2836905024715</v>
       </c>
       <c r="G34" t="n">
-        <v>175.9033664000582</v>
+        <v>207.0875912173514</v>
       </c>
       <c r="H34" t="n">
         <v>175.9033664000582</v>
@@ -6886,22 +6888,22 @@
         <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510509</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854707</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.70136564882</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="W34" t="n">
-        <v>1433.70136564882</v>
+        <v>1618.570148794805</v>
       </c>
       <c r="X34" t="n">
-        <v>1205.711814750802</v>
+        <v>1390.580597896787</v>
       </c>
       <c r="Y34" t="n">
-        <v>984.9192356072721</v>
+        <v>1169.788018753257</v>
       </c>
     </row>
     <row r="35">
@@ -6911,19 +6913,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362683</v>
@@ -6947,16 +6949,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -6968,19 +6970,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -7011,31 +7013,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K36" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L36" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>949.9304447718132</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>2129.438138565707</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1098.667160263526</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="C37" t="n">
-        <v>929.7309773356194</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="D37" t="n">
-        <v>779.6143379232836</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="E37" t="n">
-        <v>631.7012443408905</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429802</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578601</v>
+        <v>244.7670222746423</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000582</v>
+        <v>103.0551911168404</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7117,28 +7119,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854707</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V37" t="n">
-        <v>1688.385853854707</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W37" t="n">
-        <v>1398.968683817746</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X37" t="n">
-        <v>1319.459739407056</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y37" t="n">
-        <v>1098.667160263526</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="38">
@@ -7157,25 +7159,25 @@
         <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332386</v>
@@ -7184,7 +7186,7 @@
         <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
         <v>3640.422291068009</v>
@@ -7193,16 +7195,16 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U38" t="n">
         <v>4151.812499466573</v>
@@ -7211,10 +7213,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7236,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7245,31 +7247,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L39" t="n">
-        <v>680.0291294438171</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438171</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="Q39" t="n">
         <v>2516.421633107662</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3194.624135499465</v>
+        <v>2824.769373306004</v>
       </c>
       <c r="C40" t="n">
-        <v>3025.687952571559</v>
+        <v>2655.833190378097</v>
       </c>
       <c r="D40" t="n">
-        <v>2875.571313159223</v>
+        <v>2655.833190378097</v>
       </c>
       <c r="E40" t="n">
-        <v>2875.571313159223</v>
+        <v>2655.833190378097</v>
       </c>
       <c r="F40" t="n">
-        <v>2728.681365661313</v>
+        <v>2655.833190378097</v>
       </c>
       <c r="G40" t="n">
-        <v>2561.485266376193</v>
+        <v>2488.637091092977</v>
       </c>
       <c r="H40" t="n">
-        <v>2419.773435218391</v>
+        <v>2346.925259935175</v>
       </c>
       <c r="I40" t="n">
-        <v>2337.686731866304</v>
+        <v>2337.686731866305</v>
       </c>
       <c r="J40" t="n">
-        <v>2417.922750296628</v>
+        <v>2417.922750296629</v>
       </c>
       <c r="K40" t="n">
-        <v>2679.612012822167</v>
+        <v>2679.612012822168</v>
       </c>
       <c r="L40" t="n">
-        <v>3070.010606998107</v>
+        <v>3070.010606998108</v>
       </c>
       <c r="M40" t="n">
-        <v>3492.020309729142</v>
+        <v>3492.020309729143</v>
       </c>
       <c r="N40" t="n">
-        <v>3909.43018138915</v>
+        <v>3909.430181389151</v>
       </c>
       <c r="O40" t="n">
-        <v>4278.959462098135</v>
+        <v>4278.959462098136</v>
       </c>
       <c r="P40" t="n">
-        <v>4571.634917671694</v>
+        <v>4571.634917671695</v>
       </c>
       <c r="Q40" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="R40" t="n">
-        <v>4623.787448650995</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S40" t="n">
-        <v>4440.9326143059</v>
+        <v>4507.978318053499</v>
       </c>
       <c r="T40" t="n">
-        <v>4440.9326143059</v>
+        <v>4288.37685307644</v>
       </c>
       <c r="U40" t="n">
-        <v>4369.1563886141</v>
+        <v>3999.301626420638</v>
       </c>
       <c r="V40" t="n">
-        <v>4114.471900408214</v>
+        <v>3744.617138214751</v>
       </c>
       <c r="W40" t="n">
-        <v>3825.054730371253</v>
+        <v>3455.199968177791</v>
       </c>
       <c r="X40" t="n">
-        <v>3597.065179473235</v>
+        <v>3227.210417279774</v>
       </c>
       <c r="Y40" t="n">
-        <v>3376.272600329705</v>
+        <v>3006.417838136244</v>
       </c>
     </row>
     <row r="41">
@@ -7391,25 +7393,25 @@
         <v>1948.813509611464</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168616</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G41" t="n">
-        <v>379.830887436269</v>
+        <v>379.8308874362692</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K41" t="n">
         <v>852.8523611075811</v>
@@ -7485,31 +7487,31 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797189</v>
+        <v>740.5562989961526</v>
       </c>
       <c r="M42" t="n">
-        <v>691.1951506745238</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N42" t="n">
-        <v>1318.793114229131</v>
+        <v>1965.532750177311</v>
       </c>
       <c r="O42" t="n">
-        <v>1870.702844468418</v>
+        <v>1965.532750177311</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2389.15589967238</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,7 +7545,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1098.667160263526</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="C43" t="n">
         <v>929.7309773356194</v>
@@ -7591,28 +7593,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T43" t="n">
-        <v>2197.062545487568</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U43" t="n">
-        <v>1907.987318831765</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V43" t="n">
-        <v>1653.302830625878</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W43" t="n">
-        <v>1363.885660588918</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X43" t="n">
-        <v>1135.8961096909</v>
+        <v>1150.523556479149</v>
       </c>
       <c r="Y43" t="n">
-        <v>1135.8961096909</v>
+        <v>929.7309773356194</v>
       </c>
     </row>
     <row r="44">
@@ -7625,31 +7627,31 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311171</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7725,28 +7727,28 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>244.2098454714573</v>
       </c>
       <c r="L45" t="n">
-        <v>577.3880777468471</v>
+        <v>739.5354516872161</v>
       </c>
       <c r="M45" t="n">
-        <v>1174.766565373399</v>
+        <v>1336.913939313768</v>
       </c>
       <c r="N45" t="n">
-        <v>1802.364528928006</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O45" t="n">
-        <v>1896.176478190824</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>3275.130390493383</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C46" t="n">
-        <v>3106.194207565477</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D46" t="n">
-        <v>2956.077568153141</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="E46" t="n">
-        <v>2808.164474570748</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="F46" t="n">
-        <v>2661.274527072837</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="G46" t="n">
-        <v>2494.078427787717</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H46" t="n">
-        <v>2352.366596629915</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I46" t="n">
-        <v>2337.686731866305</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J46" t="n">
-        <v>2417.922750296629</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>2679.612012822168</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>3070.010606998108</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
-        <v>3492.020309729143</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>3909.430181389151</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>4278.959462098136</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
-        <v>4571.634917671695</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>4690.833152398594</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
-        <v>4623.787448650996</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>4440.932614305901</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>4221.331149328842</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
-        <v>3932.25592267304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V46" t="n">
-        <v>3677.571434467153</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W46" t="n">
-        <v>3677.571434467153</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X46" t="n">
-        <v>3677.571434467153</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y46" t="n">
-        <v>3456.778855323623</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
   </sheetData>
@@ -7976,7 +7978,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -7991,16 +7993,16 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>369.603020508345</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>103.8691969711286</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8061,25 +8063,25 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>273.6534998179984</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>129.7511347056861</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>66.98553110339714</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
-        <v>20.9377812015499</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8295,16 +8297,16 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>280.1079373569277</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>245.4670104377197</v>
       </c>
       <c r="N6" t="n">
-        <v>249.3877325071649</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
@@ -8316,7 +8318,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>20.93778120154988</v>
+        <v>20.18437503906578</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8535,25 +8537,25 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>211.0329012241562</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>277.4922425530996</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>232.4400048971988</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>20.9377812015499</v>
+        <v>20.1843750390658</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8696,7 +8698,7 @@
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>-1.972915003185951e-13</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
@@ -10595,7 +10597,7 @@
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>-8.988773068867788e-13</v>
       </c>
       <c r="O35" t="n">
         <v>0</v>
@@ -23419,22 +23421,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>38.13892827624255</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23473,10 +23475,10 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>260.4525338942701</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23653,10 +23655,10 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23698,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
-        <v>125.1956044930004</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23710,16 +23712,16 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>111.8370608760579</v>
       </c>
     </row>
     <row r="17">
@@ -23899,16 +23901,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>118.3918499711696</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -24130,13 +24132,13 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>74.19629618688077</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24145,7 +24147,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24181,7 +24183,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>139.469330230033</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24193,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24367,22 +24369,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>5.095338001567882</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>29.94462611521651</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24430,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24601,19 +24603,19 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -24649,7 +24651,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24664,10 +24666,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>12.1076634758528</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24835,19 +24837,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>21.81301072095998</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
@@ -24883,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24898,10 +24900,10 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>60.54304058923881</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25072,13 +25074,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3.532239727192746</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -25090,7 +25092,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>109.4223302771036</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -25126,16 +25128,16 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25309,19 +25311,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25330,7 +25332,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>72.11969353038565</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25369,13 +25371,13 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>146.9958004224545</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25552,13 +25554,13 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25567,7 +25569,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>72.11969353038469</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,16 +25596,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>215.1260109543626</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25783,10 +25785,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>142.9753202488369</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -25831,13 +25833,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25849,10 +25851,10 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>165.5113759375332</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26029,19 +26031,19 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>65.54986409393025</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>66.73277020259151</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26083,10 +26085,10 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>770300.8675605369</v>
+        <v>793113.3107117728</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>770300.8675605369</v>
+        <v>770107.0450159193</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>770300.8675605369</v>
+        <v>770107.0450159193</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>752100.1003983666</v>
+        <v>752100.1003983668</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>752100.1003983668</v>
+        <v>752100.1003983667</v>
       </c>
     </row>
     <row r="7">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>752100.1003983667</v>
+        <v>752100.1003983666</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>752100.1003983668</v>
+        <v>752100.1003983667</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>752100.1003983667</v>
+        <v>752100.1003983668</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>752100.1003983668</v>
+        <v>752100.1003983667</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>752100.1003983667</v>
+        <v>752100.1003983668</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>752100.1003983667</v>
+        <v>752100.1003983666</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>677359.4601380338</v>
+        <v>677359.4601380334</v>
       </c>
       <c r="C2" t="n">
-        <v>677359.460138034</v>
+        <v>677359.4601380341</v>
       </c>
       <c r="D2" t="n">
-        <v>677359.4601380338</v>
+        <v>677359.4601380341</v>
       </c>
       <c r="E2" t="n">
-        <v>665895.944744255</v>
+        <v>665895.9447442553</v>
       </c>
       <c r="F2" t="n">
+        <v>665895.9447442548</v>
+      </c>
+      <c r="G2" t="n">
         <v>665895.9447442552</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
         <v>665895.9447442549</v>
       </c>
-      <c r="H2" t="n">
-        <v>665895.944744255</v>
-      </c>
       <c r="I2" t="n">
+        <v>665895.9447442553</v>
+      </c>
+      <c r="J2" t="n">
+        <v>665895.9447442549</v>
+      </c>
+      <c r="K2" t="n">
+        <v>665895.9447442548</v>
+      </c>
+      <c r="L2" t="n">
         <v>665895.9447442552</v>
       </c>
-      <c r="J2" t="n">
-        <v>665895.944744255</v>
-      </c>
-      <c r="K2" t="n">
-        <v>665895.9447442552</v>
-      </c>
-      <c r="L2" t="n">
-        <v>665895.9447442553</v>
-      </c>
       <c r="M2" t="n">
-        <v>665895.9447442555</v>
+        <v>665895.9447442548</v>
       </c>
       <c r="N2" t="n">
         <v>665895.9447442549</v>
       </c>
       <c r="O2" t="n">
-        <v>665895.9447442548</v>
+        <v>665895.9447442553</v>
       </c>
       <c r="P2" t="n">
-        <v>665895.9447442552</v>
+        <v>665895.9447442553</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.78357592</v>
+        <v>939682.9358753958</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172764.3597898952</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.4416245458</v>
+        <v>500888.8677457509</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099826</v>
+        <v>169414.0168260481</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>1.62584001373034e-10</v>
       </c>
       <c r="M3" t="n">
-        <v>132607.2937289267</v>
+        <v>130884.4569042352</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,46 +26417,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>130705.5901165056</v>
+        <v>159785.8388151604</v>
       </c>
       <c r="C4" t="n">
-        <v>130705.5901165055</v>
+        <v>129066.7547252479</v>
       </c>
       <c r="D4" t="n">
-        <v>130705.5901165056</v>
+        <v>129066.754725248</v>
       </c>
       <c r="E4" t="n">
-        <v>6287.480531695103</v>
+        <v>6287.480531695023</v>
       </c>
       <c r="F4" t="n">
-        <v>6287.480531695024</v>
+        <v>6287.480531695051</v>
       </c>
       <c r="G4" t="n">
-        <v>6287.480531695105</v>
+        <v>6287.480531695051</v>
       </c>
       <c r="H4" t="n">
         <v>6287.480531695051</v>
       </c>
       <c r="I4" t="n">
-        <v>6287.480531695035</v>
+        <v>6287.480531695051</v>
       </c>
       <c r="J4" t="n">
-        <v>6287.480531695022</v>
+        <v>6287.480531695051</v>
       </c>
       <c r="K4" t="n">
-        <v>6287.480531695024</v>
+        <v>6287.480531695051</v>
       </c>
       <c r="L4" t="n">
-        <v>6287.480531695033</v>
+        <v>6287.480531695051</v>
       </c>
       <c r="M4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.48053169503</v>
       </c>
       <c r="N4" t="n">
-        <v>6287.480531695024</v>
+        <v>6287.480531695052</v>
       </c>
       <c r="O4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695052</v>
       </c>
       <c r="P4" t="n">
         <v>6287.480531695051</v>
@@ -26467,13 +26469,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.7724398447</v>
+        <v>89345.07489699085</v>
       </c>
       <c r="C5" t="n">
-        <v>92937.77243984472</v>
+        <v>93481.0893615096</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.7724398447</v>
+        <v>93481.0893615096</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-661035.685994236</v>
+        <v>-511454.3894495136</v>
       </c>
       <c r="C6" t="n">
-        <v>453716.0975816837</v>
+        <v>282047.2562613814</v>
       </c>
       <c r="D6" t="n">
-        <v>453716.0975816837</v>
+        <v>454811.6160512765</v>
       </c>
       <c r="E6" t="n">
-        <v>51000.492764107</v>
+        <v>57597.06664290219</v>
       </c>
       <c r="F6" t="n">
+        <v>558485.9343886527</v>
+      </c>
+      <c r="G6" t="n">
         <v>558485.934388653</v>
-      </c>
-      <c r="G6" t="n">
-        <v>558485.9343886528</v>
       </c>
       <c r="H6" t="n">
         <v>558485.9343886529</v>
       </c>
       <c r="I6" t="n">
-        <v>558485.934388653</v>
+        <v>558485.9343886531</v>
       </c>
       <c r="J6" t="n">
-        <v>390880.7565786703</v>
+        <v>389071.9175626047</v>
       </c>
       <c r="K6" t="n">
-        <v>558485.934388653</v>
+        <v>558485.9343886527</v>
       </c>
       <c r="L6" t="n">
+        <v>558485.9343886529</v>
+      </c>
+      <c r="M6" t="n">
+        <v>427601.4774844174</v>
+      </c>
+      <c r="N6" t="n">
+        <v>558485.9343886527</v>
+      </c>
+      <c r="O6" t="n">
         <v>558485.9343886531</v>
       </c>
-      <c r="M6" t="n">
-        <v>425878.6406597267</v>
-      </c>
-      <c r="N6" t="n">
-        <v>558485.9343886528</v>
-      </c>
-      <c r="O6" t="n">
-        <v>558485.9343886527</v>
-      </c>
       <c r="P6" t="n">
-        <v>558485.934388653</v>
+        <v>558485.9343886531</v>
       </c>
     </row>
   </sheetData>
@@ -26735,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175392</v>
+        <v>749.9809564976077</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175393</v>
+        <v>939.7063906498446</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175392</v>
+        <v>939.7063906498445</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26787,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000389</v>
+        <v>647.4981915352465</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000389</v>
+        <v>647.4981915352465</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000389</v>
+        <v>647.4981915352465</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26823,7 +26825,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099649</v>
@@ -26957,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175392</v>
+        <v>749.9809564976077</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>189.7254341522369</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241345</v>
+        <v>428.2691096918295</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26987,7 +26989,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000389</v>
+        <v>647.4981915352465</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996095</v>
+        <v>525.2100965644019</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.584832100039</v>
+        <v>647.4981915352465</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996095</v>
+        <v>525.210096564402</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000389</v>
+        <v>647.4981915352465</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996095</v>
+        <v>525.2100965644019</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27388,16 +27390,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>136.8992287065685</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>308.5974454495114</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>94.24014755885203</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27430,7 +27432,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27442,7 +27444,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>340.6329984536785</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27534,28 +27536,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>11.57811870658819</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>105.2578428433175</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>150.2028876639205</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,28 +27584,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>116.48346005197</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>200.4475243713015</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>222.1670476323163</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>62.76532734210173</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27634,7 +27636,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247047</v>
+        <v>64.83556544767973</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,13 +27666,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>122.935408774453</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>206.5589059457607</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.0434357771752</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27679,7 +27681,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>288.2714461872949</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27774,25 +27776,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>9.83704544548101</v>
+        <v>119.76553427757</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -27828,7 +27830,7 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2265992197056</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -27840,7 +27842,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27853,25 +27855,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>158.142922602306</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>183.3259697414175</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247049</v>
+        <v>64.83556544767973</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,7 +27903,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>122.935408774453</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -27913,10 +27915,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -28011,7 +28013,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28026,10 +28028,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>137.1472719876095</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28059,19 +28061,19 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2265992197056</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>6.548330895758966</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -31039,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.755034742181059</v>
+        <v>3.014998820090883</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336179</v>
+        <v>30.87735666625576</v>
       </c>
       <c r="I2" t="n">
-        <v>144.7659768979354</v>
+        <v>116.2357420115539</v>
       </c>
       <c r="J2" t="n">
-        <v>318.70387994919</v>
+        <v>255.8942561066888</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857143</v>
+        <v>383.519156161136</v>
       </c>
       <c r="L2" t="n">
-        <v>592.572645076738</v>
+        <v>475.7894263014924</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730004</v>
+        <v>529.4074115682837</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342224</v>
+        <v>537.9737769658669</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166595</v>
+        <v>507.9933824485882</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190645</v>
+        <v>433.5605990775944</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147052</v>
+        <v>325.5859538330896</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235312</v>
+        <v>189.3909196325341</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745098</v>
+        <v>68.70428561282107</v>
       </c>
       <c r="T2" t="n">
-        <v>16.4376645838976</v>
+        <v>13.19815733494785</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.2411999056072706</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.00912071134716</v>
+        <v>1.6131665856741</v>
       </c>
       <c r="H3" t="n">
-        <v>19.40387634380021</v>
+        <v>15.57979307743144</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436494</v>
+        <v>55.54104253307757</v>
       </c>
       <c r="J3" t="n">
-        <v>189.8178475575841</v>
+        <v>152.4088658859903</v>
       </c>
       <c r="K3" t="n">
-        <v>324.4289352178438</v>
+        <v>260.491027126155</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177244</v>
+        <v>350.2623325605101</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040588</v>
+        <v>408.7396212911962</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762072</v>
+        <v>419.5577428240721</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405675</v>
+        <v>383.8133674257144</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378625</v>
+        <v>308.0440649433287</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.4624964168761</v>
+        <v>205.9192996028904</v>
       </c>
       <c r="R3" t="n">
-        <v>124.7417227624141</v>
+        <v>100.1578341526428</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997902</v>
+        <v>29.96386179969214</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000172</v>
+        <v>6.502193386993408</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.106129380636454</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.684379313654579</v>
+        <v>1.352424675651424</v>
       </c>
       <c r="H4" t="n">
-        <v>14.97566335231072</v>
+        <v>12.02428484351903</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335771</v>
+        <v>40.67109842777192</v>
       </c>
       <c r="J4" t="n">
-        <v>119.0856174753787</v>
+        <v>95.61642456855564</v>
       </c>
       <c r="K4" t="n">
-        <v>195.6942511682319</v>
+        <v>157.1271577711381</v>
       </c>
       <c r="L4" t="n">
-        <v>250.4212663227908</v>
+        <v>201.0686649600308</v>
       </c>
       <c r="M4" t="n">
-        <v>264.0341136849627</v>
+        <v>211.9987152932499</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067959</v>
+        <v>206.9578596840039</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154673</v>
+        <v>191.1590805184395</v>
       </c>
       <c r="P4" t="n">
-        <v>203.7180217169137</v>
+        <v>163.5696171351503</v>
       </c>
       <c r="Q4" t="n">
-        <v>141.0437987097484</v>
+        <v>113.2471244311388</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759585</v>
+        <v>60.80993132519945</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523479</v>
+        <v>23.56907366567071</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069562</v>
+        <v>5.778541795965173</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.07376861867189592</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.75503474218106</v>
+        <v>3.777714133265704</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336179</v>
+        <v>38.6885148673074</v>
       </c>
       <c r="I5" t="n">
-        <v>144.7659768979354</v>
+        <v>145.6403241227262</v>
       </c>
       <c r="J5" t="n">
-        <v>318.70387994919</v>
+        <v>320.6287649182603</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857143</v>
+        <v>480.5394041793977</v>
       </c>
       <c r="L5" t="n">
-        <v>592.5726450767381</v>
+        <v>596.1516230853281</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730005</v>
+        <v>663.3335468027921</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342224</v>
+        <v>674.0669770839332</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166596</v>
+        <v>636.5023321712724</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190645</v>
+        <v>543.2400145062752</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147052</v>
+        <v>407.9506271086971</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235312</v>
+        <v>237.301835423752</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745099</v>
+        <v>86.08466081179232</v>
       </c>
       <c r="T5" t="n">
-        <v>16.4376645838976</v>
+        <v>16.53694361837063</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.3022171306612563</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.00912071134716</v>
+        <v>2.021255255360043</v>
       </c>
       <c r="H6" t="n">
-        <v>19.40387634380021</v>
+        <v>19.52107049255621</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436496</v>
+        <v>69.59146383586115</v>
       </c>
       <c r="J6" t="n">
-        <v>189.8178475575841</v>
+        <v>190.9642958583802</v>
       </c>
       <c r="K6" t="n">
-        <v>324.4289352178438</v>
+        <v>326.3883979675031</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177244</v>
+        <v>438.8694798973638</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040589</v>
+        <v>512.1399829041652</v>
       </c>
       <c r="N6" t="n">
-        <v>522.5388116762073</v>
+        <v>525.6948043315579</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405675</v>
+        <v>480.9080431470011</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378626</v>
+        <v>385.9711022274806</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.4624964168761</v>
+        <v>258.0114603157838</v>
       </c>
       <c r="R6" t="n">
-        <v>124.7417227624141</v>
+        <v>125.4951289248982</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997902</v>
+        <v>37.5439298528499</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000172</v>
+        <v>8.147077103841575</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1329773194315818</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.684379313654579</v>
+        <v>1.694552507729228</v>
       </c>
       <c r="H7" t="n">
-        <v>14.97566335231072</v>
+        <v>15.0661122959926</v>
       </c>
       <c r="I7" t="n">
-        <v>50.65387972335772</v>
+        <v>50.95981541425716</v>
       </c>
       <c r="J7" t="n">
-        <v>119.0856174753787</v>
+        <v>119.8048622964564</v>
       </c>
       <c r="K7" t="n">
-        <v>195.6942511682319</v>
+        <v>196.8761913525412</v>
       </c>
       <c r="L7" t="n">
-        <v>250.4212663227908</v>
+        <v>251.9337428309436</v>
       </c>
       <c r="M7" t="n">
-        <v>264.0341136849627</v>
+        <v>265.6288080979552</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067959</v>
+        <v>259.3127487509647</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154673</v>
+        <v>239.5172944561277</v>
       </c>
       <c r="P7" t="n">
-        <v>203.7180217169137</v>
+        <v>204.9484232984512</v>
       </c>
       <c r="Q7" t="n">
-        <v>141.0437987097484</v>
+        <v>141.8956649881265</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759587</v>
+        <v>76.19324275662508</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523479</v>
+        <v>29.53142870288117</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069562</v>
+        <v>7.240360714843062</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09243013678523071</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.755034742181059</v>
+        <v>3.777714133265703</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336179</v>
+        <v>38.6885148673074</v>
       </c>
       <c r="I8" t="n">
-        <v>144.7659768979354</v>
+        <v>145.6403241227262</v>
       </c>
       <c r="J8" t="n">
-        <v>318.70387994919</v>
+        <v>320.6287649182603</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857143</v>
+        <v>480.5394041793976</v>
       </c>
       <c r="L8" t="n">
-        <v>592.572645076738</v>
+        <v>596.1516230853281</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730004</v>
+        <v>663.3335468027919</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342224</v>
+        <v>674.0669770839332</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166595</v>
+        <v>636.5023321712723</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190645</v>
+        <v>543.2400145062752</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147052</v>
+        <v>407.950627108697</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235312</v>
+        <v>237.301835423752</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745098</v>
+        <v>86.0846608117923</v>
       </c>
       <c r="T8" t="n">
-        <v>16.4376645838976</v>
+        <v>16.53694361837062</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.3022171306612562</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.00912071134716</v>
+        <v>2.021255255360043</v>
       </c>
       <c r="H9" t="n">
-        <v>19.40387634380021</v>
+        <v>19.52107049255621</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436494</v>
+        <v>69.59146383586113</v>
       </c>
       <c r="J9" t="n">
-        <v>189.8178475575841</v>
+        <v>190.9642958583802</v>
       </c>
       <c r="K9" t="n">
-        <v>324.4289352178438</v>
+        <v>326.3883979675031</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177244</v>
+        <v>438.8694798973638</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040588</v>
+        <v>512.1399829041652</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762072</v>
+        <v>525.6948043315579</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405675</v>
+        <v>480.9080431470011</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378625</v>
+        <v>385.9711022274805</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.4624964168761</v>
+        <v>258.0114603157837</v>
       </c>
       <c r="R9" t="n">
-        <v>124.7417227624141</v>
+        <v>125.4951289248982</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997902</v>
+        <v>37.54392985284989</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000172</v>
+        <v>8.147077103841573</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1329773194315818</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.684379313654579</v>
+        <v>1.694552507729228</v>
       </c>
       <c r="H10" t="n">
-        <v>14.97566335231072</v>
+        <v>15.0661122959926</v>
       </c>
       <c r="I10" t="n">
-        <v>50.65387972335771</v>
+        <v>50.95981541425715</v>
       </c>
       <c r="J10" t="n">
-        <v>119.0856174753787</v>
+        <v>119.8048622964564</v>
       </c>
       <c r="K10" t="n">
-        <v>195.6942511682319</v>
+        <v>196.8761913525411</v>
       </c>
       <c r="L10" t="n">
-        <v>250.4212663227908</v>
+        <v>251.9337428309436</v>
       </c>
       <c r="M10" t="n">
-        <v>264.0341136849627</v>
+        <v>265.6288080979551</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067959</v>
+        <v>259.3127487509646</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154673</v>
+        <v>239.5172944561276</v>
       </c>
       <c r="P10" t="n">
-        <v>203.7180217169137</v>
+        <v>204.9484232984512</v>
       </c>
       <c r="Q10" t="n">
-        <v>141.0437987097484</v>
+        <v>141.8956649881265</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759585</v>
+        <v>76.19324275662507</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523479</v>
+        <v>29.53142870288116</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069562</v>
+        <v>7.240360714843061</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.0924301367852307</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>167.4835451665588</v>
+        <v>379.4203056753698</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32075,13 +32077,13 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>533.6019216797993</v>
       </c>
       <c r="M15" t="n">
         <v>745.5466476862122</v>
@@ -32090,16 +32092,16 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>461.1007071927452</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
         <v>561.8765786214699</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742439</v>
@@ -32312,25 +32314,25 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>320.9147064709962</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>548.8125296967487</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q18" t="n">
         <v>375.5996128485291</v>
@@ -32461,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>458.6770173132157</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>405.6377363145776</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>377.6350660745949</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>363.5371514786841</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>345.1232217852615</v>
+        <v>391.925066926462</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
-        <v>131.3417120833333</v>
+        <v>704.1404939038099</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>197.6412480909875</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33494,16 +33496,16 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>624.2063432190395</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862122</v>
@@ -33512,16 +33514,16 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
-        <v>321.1112257697157</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742439</v>
@@ -33731,34 +33733,34 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>355.4083096598242</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>361.7519118779092</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742439</v>
@@ -33968,31 +33970,31 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
         <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>393.3904345522222</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.5996128485291</v>
+        <v>359.1374415194863</v>
       </c>
       <c r="R39" t="n">
         <v>182.6892564418561</v>
@@ -34205,16 +34207,16 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862122</v>
@@ -34223,16 +34225,16 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>550.5977692975237</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.5996128485291</v>
+        <v>305.542772458138</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742439</v>
@@ -34445,13 +34447,13 @@
         <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>289.7537444526271</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862122</v>
@@ -34460,16 +34462,16 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>237.3557891543622</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742439</v>
@@ -34696,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225037</v>
+        <v>243.9449667520763</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407337</v>
+        <v>163.4293051161554</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067508</v>
+        <v>240.0230113315052</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457277</v>
+        <v>299.061178341011</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376315</v>
+        <v>308.560713369276</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949727</v>
+        <v>647.4981915352465</v>
       </c>
       <c r="P2" t="n">
-        <v>308.745693963795</v>
+        <v>306.1968002934535</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402557</v>
+        <v>315.5952546185448</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939904</v>
+        <v>39.52180169138441</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>189.0712562313263</v>
+        <v>151.6622745597324</v>
       </c>
       <c r="K3" t="n">
-        <v>186.5874962434848</v>
+        <v>122.649588151796</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378502</v>
+        <v>582.5482980840951</v>
       </c>
       <c r="M3" t="n">
-        <v>640.5848321000389</v>
+        <v>266.6055873691778</v>
       </c>
       <c r="N3" t="n">
-        <v>391.1970995928739</v>
+        <v>288.2160307407388</v>
       </c>
       <c r="O3" t="n">
-        <v>465.1758167018091</v>
+        <v>635.0794422579995</v>
       </c>
       <c r="P3" t="n">
-        <v>249.6795291235323</v>
+        <v>241.0551886323956</v>
       </c>
       <c r="Q3" t="n">
-        <v>116.4807223308546</v>
+        <v>276.0148132527179</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870594</v>
+        <v>2.257244451882869</v>
       </c>
       <c r="K4" t="n">
-        <v>173.4247593423491</v>
+        <v>134.8576659452552</v>
       </c>
       <c r="L4" t="n">
-        <v>278.0112915831069</v>
+        <v>228.6586902203469</v>
       </c>
       <c r="M4" t="n">
-        <v>303.6179906468033</v>
+        <v>251.5825922550905</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860245</v>
+        <v>251.0900320632325</v>
       </c>
       <c r="O4" t="n">
-        <v>262.6644876295069</v>
+        <v>215.7442084324792</v>
       </c>
       <c r="P4" t="n">
-        <v>200.9965809818072</v>
+        <v>160.8481764000438</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.88175545805403</v>
+        <v>27.08508117944437</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225037</v>
+        <v>139.5828603915741</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407338</v>
+        <v>260.4495531344172</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067509</v>
+        <v>360.3852081153408</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457278</v>
+        <v>432.9873135755194</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376315</v>
+        <v>444.6539134873423</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949728</v>
+        <v>406.4041207495857</v>
       </c>
       <c r="P5" t="n">
-        <v>308.745693963795</v>
+        <v>312.0070187510057</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402557</v>
+        <v>185.6449372342476</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939907</v>
+        <v>21.71629760961986</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>62.98022089091745</v>
+        <v>64.12666919171355</v>
       </c>
       <c r="K6" t="n">
-        <v>186.5874962434848</v>
+        <v>453.0121960057227</v>
       </c>
       <c r="L6" t="n">
-        <v>577.788297994778</v>
+        <v>300.3151001174896</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820406</v>
+        <v>615.4729594198666</v>
       </c>
       <c r="N6" t="n">
-        <v>640.5848321000389</v>
+        <v>394.3530922482246</v>
       </c>
       <c r="O6" t="n">
-        <v>335.4246819961231</v>
+        <v>338.3117987025567</v>
       </c>
       <c r="P6" t="n">
-        <v>249.6795291235323</v>
+        <v>251.9966948131503</v>
       </c>
       <c r="Q6" t="n">
-        <v>116.4807223308546</v>
+        <v>118.0296862297623</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870595</v>
+        <v>26.44568217978362</v>
       </c>
       <c r="K7" t="n">
-        <v>173.4247593423491</v>
+        <v>174.6066995266583</v>
       </c>
       <c r="L7" t="n">
-        <v>278.011291583107</v>
+        <v>279.5237680912597</v>
       </c>
       <c r="M7" t="n">
-        <v>303.6179906468033</v>
+        <v>305.2126850597958</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860245</v>
+        <v>303.4449211301933</v>
       </c>
       <c r="O7" t="n">
-        <v>262.664487629507</v>
+        <v>264.1024223701673</v>
       </c>
       <c r="P7" t="n">
-        <v>200.9965809818072</v>
+        <v>202.2269825633447</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.88175545805406</v>
+        <v>55.73362173643214</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225037</v>
+        <v>139.582860391574</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407337</v>
+        <v>260.4495531344171</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067508</v>
+        <v>360.3852081153408</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457277</v>
+        <v>432.9873135755192</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376315</v>
+        <v>444.6539134873423</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949727</v>
+        <v>406.4041207495856</v>
       </c>
       <c r="P8" t="n">
-        <v>308.745693963795</v>
+        <v>312.0070187510057</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402557</v>
+        <v>185.6449372342475</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939904</v>
+        <v>21.71629760961983</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.98022089091742</v>
+        <v>64.12666919171352</v>
       </c>
       <c r="K9" t="n">
-        <v>186.5874962434848</v>
+        <v>188.5469589931441</v>
       </c>
       <c r="L9" t="n">
-        <v>508.7132618620064</v>
+        <v>300.3151001174896</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820405</v>
+        <v>647.4981915352465</v>
       </c>
       <c r="N9" t="n">
-        <v>391.1970995928739</v>
+        <v>626.7930971454234</v>
       </c>
       <c r="O9" t="n">
-        <v>335.424681996123</v>
+        <v>338.3117987025566</v>
       </c>
       <c r="P9" t="n">
-        <v>568.1422977634695</v>
+        <v>251.9966948131503</v>
       </c>
       <c r="Q9" t="n">
-        <v>116.4807223308546</v>
+        <v>118.0296862297622</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870594</v>
+        <v>26.4456821797836</v>
       </c>
       <c r="K10" t="n">
-        <v>173.4247593423491</v>
+        <v>174.6066995266583</v>
       </c>
       <c r="L10" t="n">
-        <v>278.0112915831069</v>
+        <v>279.5237680912597</v>
       </c>
       <c r="M10" t="n">
-        <v>303.6179906468033</v>
+        <v>305.2126850597957</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860245</v>
+        <v>303.4449211301932</v>
       </c>
       <c r="O10" t="n">
-        <v>262.6644876295069</v>
+        <v>264.1024223701673</v>
       </c>
       <c r="P10" t="n">
-        <v>200.9965809818072</v>
+        <v>202.2269825633447</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.88175545805403</v>
+        <v>55.73362173643211</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902934</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,34 +35485,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
-        <v>25.34951124454049</v>
+        <v>237.2862717533515</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35650,7 +35652,7 @@
         <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462675</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
         <v>735.300110790295</v>
@@ -35723,13 +35725,13 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>395.0475418999251</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
@@ -35738,16 +35740,16 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>318.5044627483008</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>427.9021712071396</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35960,25 +35962,25 @@
         <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>189.5729943876629</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>414.8381222824185</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q18" t="n">
         <v>235.6178387625076</v>
@@ -36115,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902925</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,34 +36196,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>320.8355783388567</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>274.2960242312443</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
-        <v>285.7087110396411</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36440,25 +36442,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>235.5010321525766</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>220.9409070342396</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902934</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,34 +36670,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>211.1488143709312</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462675</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,34 +36907,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>572.7987818204766</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>57.65947400496596</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37087,10 +37089,10 @@
         <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924719</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,16 +37144,16 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>485.6519634391653</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
@@ -37160,16 +37162,16 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>187.1368183553855</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37315,7 +37317,7 @@
         <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193505</v>
       </c>
       <c r="O35" t="n">
         <v>696.4886512243162</v>
@@ -37327,7 +37329,7 @@
         <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,34 +37381,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
         <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
-        <v>213.2742757378059</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>219.1556674334648</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37543,7 +37545,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367756</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
         <v>632.079992146269</v>
@@ -37616,31 +37618,31 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>254.8360547723481</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625076</v>
+        <v>219.1556674334648</v>
       </c>
       <c r="R39" t="n">
         <v>37.00975247789214</v>
@@ -37853,16 +37855,16 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
@@ -37871,16 +37873,16 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>416.6233618831934</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625076</v>
+        <v>165.5609983721165</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38014,7 +38016,7 @@
         <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
-        <v>285.7087110396415</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
         <v>479.4543240367771</v>
@@ -38093,13 +38095,13 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>151.9123054782681</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
@@ -38108,16 +38110,16 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>94.75954470991782</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_9_33.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_9_33.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2880538.677268883</v>
+        <v>2876382.490960917</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283184</v>
+        <v>416855.1052283183</v>
       </c>
     </row>
     <row r="9">
@@ -658,22 +658,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>412.2877386950441</v>
+        <v>12.28773869504415</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -709,22 +709,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>140.3157839734243</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>209.8976922291835</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1044530022292</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>285.7474141661222</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>29.09810222479049</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -755,10 +755,10 @@
         <v>135.7303505775365</v>
       </c>
       <c r="H3" t="n">
-        <v>96.65565115906503</v>
+        <v>96.65565115906496</v>
       </c>
       <c r="I3" t="n">
-        <v>33.85559031833751</v>
+        <v>33.85559031833728</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -788,7 +788,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>141.7193093041457</v>
+        <v>141.7193093041456</v>
       </c>
       <c r="T3" t="n">
         <v>193.6625353078282</v>
@@ -816,28 +816,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>100.0826347325352</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>61.38071183948978</v>
+        <v>166.6385546828073</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>150.2028876639205</v>
       </c>
       <c r="I4" t="n">
-        <v>114.7793764994864</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -870,13 +870,13 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>222.1670476323163</v>
       </c>
       <c r="U4" t="n">
-        <v>286.245260737819</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -885,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -895,10 +895,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>319.9685143213788</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -910,10 +910,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>411.5250233818693</v>
+        <v>247.2761215785791</v>
       </c>
       <c r="H5" t="n">
-        <v>300.7862872484598</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -958,13 +958,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1056,16 +1056,16 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>25.65551374536124</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>166.2964268507295</v>
@@ -1107,13 +1107,13 @@
         <v>194.4851693340911</v>
       </c>
       <c r="T7" t="n">
-        <v>220.7052287134384</v>
+        <v>39.39655401449938</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1135,22 +1135,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>411.5250233818693</v>
       </c>
       <c r="H8" t="n">
-        <v>117.4603175070422</v>
+        <v>300.7862872484598</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1186,19 +1186,19 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>206.5589059457607</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.0434357771752</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>117.5802289387322</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1232,7 +1232,7 @@
         <v>92.71437374394026</v>
       </c>
       <c r="I9" t="n">
-        <v>19.80516901555394</v>
+        <v>19.80516901555393</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1290,28 +1290,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>100.5827519824192</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.2964268507295</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>147.161060211447</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>104.4906595130011</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,25 +1338,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.1001486205444</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>194.4851693340911</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7052287134384</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>279.974667440832</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1369,10 +1369,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710084</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1533,13 +1533,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>80.08971311158757</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1587,16 +1587,16 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>26.07046444232094</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1669,13 +1669,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174136</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1773,19 +1773,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428212</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1824,7 +1824,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1833,7 +1833,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>106.7475924760369</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1897,7 +1897,7 @@
         <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576173</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -2019,7 +2019,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>83.06560892428213</v>
+        <v>83.06560892428212</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2083,7 +2083,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710079</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2098,7 +2098,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444135</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2253,7 +2253,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2295,7 +2295,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>146.7151441592111</v>
+        <v>245.8640357413588</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2484,19 +2484,19 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>160.428800290701</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>83.06560892428212</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2544,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2563,7 +2563,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2727,13 +2727,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>27.02919805176109</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2955,22 +2955,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3012,10 +3012,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>165.1666147997983</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3088,7 +3088,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -3192,22 +3192,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>30.87238256912024</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,19 +3234,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>9.146142788179931</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3319,7 +3319,7 @@
         <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U35" t="n">
         <v>250.9057009881286</v>
@@ -3429,13 +3429,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
@@ -3444,7 +3444,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>9.146142788179874</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3483,13 +3483,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>185.4048731212365</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3666,13 +3666,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
@@ -3681,7 +3681,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>9.146142788180832</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3717,10 +3717,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3729,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>177.9413471369472</v>
       </c>
     </row>
     <row r="41">
@@ -3757,7 +3757,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444144</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3897,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>0.8253826161911274</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3963,7 +3963,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>60.19827945150398</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4149,10 +4149,10 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>99.97427419833859</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4203,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>12.74007641194018</v>
       </c>
     </row>
   </sheetData>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>879.2380214205527</v>
+        <v>798.3854288869068</v>
       </c>
       <c r="C2" t="n">
-        <v>879.2380214205527</v>
+        <v>429.4229119464951</v>
       </c>
       <c r="D2" t="n">
-        <v>879.2380214205527</v>
+        <v>71.15721333974457</v>
       </c>
       <c r="E2" t="n">
-        <v>879.2380214205527</v>
+        <v>71.15721333974457</v>
       </c>
       <c r="F2" t="n">
-        <v>468.2521166309451</v>
+        <v>64.2117125905411</v>
       </c>
       <c r="G2" t="n">
         <v>51.79985532281972</v>
@@ -4330,52 +4330,52 @@
         <v>51.79985532281972</v>
       </c>
       <c r="J2" t="n">
-        <v>293.3053724073753</v>
+        <v>125.8997233870233</v>
       </c>
       <c r="K2" t="n">
-        <v>455.1003844723691</v>
+        <v>608.5986938974718</v>
       </c>
       <c r="L2" t="n">
-        <v>692.7231656905592</v>
+        <v>1092.198364333237</v>
       </c>
       <c r="M2" t="n">
-        <v>988.79373224816</v>
+        <v>1388.26893089084</v>
       </c>
       <c r="N2" t="n">
-        <v>1294.268838483743</v>
+        <v>1693.744037126425</v>
       </c>
       <c r="O2" t="n">
-        <v>1935.292048103637</v>
+        <v>1968.86025644306</v>
       </c>
       <c r="P2" t="n">
-        <v>2238.426880394156</v>
+        <v>2487.745304821931</v>
       </c>
       <c r="Q2" t="n">
-        <v>2550.866182466516</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="R2" t="n">
         <v>2589.992766140986</v>
       </c>
       <c r="S2" t="n">
-        <v>2448.259651016315</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="T2" t="n">
-        <v>2236.241780077746</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="U2" t="n">
-        <v>1982.600918459333</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="V2" t="n">
-        <v>1651.538031115762</v>
+        <v>2301.359014458034</v>
       </c>
       <c r="W2" t="n">
-        <v>1298.769375845648</v>
+        <v>1948.59035918792</v>
       </c>
       <c r="X2" t="n">
-        <v>1269.377353396364</v>
+        <v>1575.12460092684</v>
       </c>
       <c r="Y2" t="n">
-        <v>879.2380214205527</v>
+        <v>1184.985268951029</v>
       </c>
     </row>
     <row r="3">
@@ -4385,73 +4385,73 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>949.890208309364</v>
+        <v>949.8902083093635</v>
       </c>
       <c r="C3" t="n">
-        <v>775.437179028237</v>
+        <v>775.4371790282365</v>
       </c>
       <c r="D3" t="n">
-        <v>626.5027693669858</v>
+        <v>626.5027693669851</v>
       </c>
       <c r="E3" t="n">
-        <v>467.2653143615303</v>
+        <v>467.2653143615296</v>
       </c>
       <c r="F3" t="n">
-        <v>320.7307563884153</v>
+        <v>320.7307563884146</v>
       </c>
       <c r="G3" t="n">
-        <v>183.6293921686809</v>
+        <v>183.6293921686806</v>
       </c>
       <c r="H3" t="n">
-        <v>85.99742130093843</v>
+        <v>85.9974213009382</v>
       </c>
       <c r="I3" t="n">
         <v>51.79985532281972</v>
       </c>
       <c r="J3" t="n">
-        <v>201.9455071369548</v>
+        <v>77.11538214995069</v>
       </c>
       <c r="K3" t="n">
-        <v>323.3685994072329</v>
+        <v>198.5384744202298</v>
       </c>
       <c r="L3" t="n">
-        <v>900.091414510487</v>
+        <v>775.2612895234854</v>
       </c>
       <c r="M3" t="n">
-        <v>1164.030946005973</v>
+        <v>1082.633797470261</v>
       </c>
       <c r="N3" t="n">
-        <v>1449.364816439304</v>
+        <v>1723.657007090155</v>
       </c>
       <c r="O3" t="n">
-        <v>2078.093464274724</v>
+        <v>2352.385654925576</v>
       </c>
       <c r="P3" t="n">
-        <v>2316.738101020796</v>
+        <v>2524.714615879285</v>
       </c>
       <c r="Q3" t="n">
         <v>2589.992766140986</v>
       </c>
       <c r="R3" t="n">
-        <v>2589.992766140987</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="S3" t="n">
         <v>2446.841948662051</v>
       </c>
       <c r="T3" t="n">
-        <v>2251.223226128892</v>
+        <v>2251.223226128891</v>
       </c>
       <c r="U3" t="n">
         <v>2023.106809259863</v>
       </c>
       <c r="V3" t="n">
-        <v>1787.954701028121</v>
+        <v>1787.95470102812</v>
       </c>
       <c r="W3" t="n">
-        <v>1533.717344299919</v>
+        <v>1533.717344299918</v>
       </c>
       <c r="X3" t="n">
-        <v>1325.865844094386</v>
+        <v>1325.865844094385</v>
       </c>
       <c r="Y3" t="n">
         <v>1118.105545329432</v>
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>546.5886150038027</v>
+        <v>985.6975796996567</v>
       </c>
       <c r="C4" t="n">
-        <v>377.6524320758958</v>
+        <v>816.7613967717498</v>
       </c>
       <c r="D4" t="n">
-        <v>377.6524320758958</v>
+        <v>666.644757359414</v>
       </c>
       <c r="E4" t="n">
-        <v>229.7393384935027</v>
+        <v>518.7316637770209</v>
       </c>
       <c r="F4" t="n">
-        <v>229.7393384935027</v>
+        <v>371.8417162791105</v>
       </c>
       <c r="G4" t="n">
-        <v>167.7386194637151</v>
+        <v>203.5199438722344</v>
       </c>
       <c r="H4" t="n">
-        <v>167.7386194637151</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="I4" t="n">
         <v>51.79985532281972</v>
       </c>
       <c r="J4" t="n">
-        <v>54.03452733018376</v>
+        <v>54.03452733018416</v>
       </c>
       <c r="K4" t="n">
-        <v>187.5436166159864</v>
+        <v>187.5436166159875</v>
       </c>
       <c r="L4" t="n">
-        <v>413.9157199341299</v>
+        <v>413.9157199341317</v>
       </c>
       <c r="M4" t="n">
-        <v>662.9824862666695</v>
+        <v>662.9824862666723</v>
       </c>
       <c r="N4" t="n">
-        <v>911.5616180092698</v>
+        <v>911.5616180092733</v>
       </c>
       <c r="O4" t="n">
-        <v>1125.148384357424</v>
+        <v>1125.148384357428</v>
       </c>
       <c r="P4" t="n">
-        <v>1284.388078993468</v>
+        <v>1284.388078993472</v>
       </c>
       <c r="Q4" t="n">
-        <v>1311.202309361118</v>
+        <v>1311.202309361123</v>
       </c>
       <c r="R4" t="n">
-        <v>1311.202309361118</v>
+        <v>1311.202309361123</v>
       </c>
       <c r="S4" t="n">
-        <v>1311.202309361118</v>
+        <v>1311.202309361123</v>
       </c>
       <c r="T4" t="n">
-        <v>1311.202309361118</v>
+        <v>1086.791150136561</v>
       </c>
       <c r="U4" t="n">
-        <v>1022.06568235322</v>
+        <v>1086.791150136561</v>
       </c>
       <c r="V4" t="n">
-        <v>767.3811941473328</v>
+        <v>1086.791150136561</v>
       </c>
       <c r="W4" t="n">
-        <v>767.3811941473328</v>
+        <v>1086.791150136561</v>
       </c>
       <c r="X4" t="n">
-        <v>767.3811941473328</v>
+        <v>1086.791150136561</v>
       </c>
       <c r="Y4" t="n">
-        <v>546.5886150038027</v>
+        <v>1086.791150136561</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1540.557833093248</v>
+        <v>1439.787835839972</v>
       </c>
       <c r="C5" t="n">
-        <v>1540.557833093248</v>
+        <v>1070.825318899561</v>
       </c>
       <c r="D5" t="n">
-        <v>1182.292134486497</v>
+        <v>712.5596202928102</v>
       </c>
       <c r="E5" t="n">
-        <v>1182.292134486497</v>
+        <v>712.5596202928102</v>
       </c>
       <c r="F5" t="n">
-        <v>771.3062296968895</v>
+        <v>301.5737155032027</v>
       </c>
       <c r="G5" t="n">
-        <v>355.6243878970215</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="H5" t="n">
         <v>51.79985532281972</v>
@@ -4567,10 +4567,10 @@
         <v>51.79985532281972</v>
       </c>
       <c r="J5" t="n">
-        <v>189.986887110478</v>
+        <v>189.9868871104779</v>
       </c>
       <c r="K5" t="n">
-        <v>447.831944713551</v>
+        <v>447.8319447135509</v>
       </c>
       <c r="L5" t="n">
         <v>804.6133007477383</v>
@@ -4582,10 +4582,10 @@
         <v>1673.478115539971</v>
       </c>
       <c r="O5" t="n">
-        <v>2075.818195082062</v>
+        <v>2075.818195082061</v>
       </c>
       <c r="P5" t="n">
-        <v>2384.705143645558</v>
+        <v>2384.705143645557</v>
       </c>
       <c r="Q5" t="n">
         <v>2568.493631507462</v>
@@ -4606,13 +4606,13 @@
         <v>2589.992766140986</v>
       </c>
       <c r="W5" t="n">
-        <v>2237.224110870872</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="X5" t="n">
-        <v>1863.758352609792</v>
+        <v>2216.527007879906</v>
       </c>
       <c r="Y5" t="n">
-        <v>1863.758352609792</v>
+        <v>1826.387675904094</v>
       </c>
     </row>
     <row r="6">
@@ -4631,40 +4631,40 @@
         <v>607.9171255411325</v>
       </c>
       <c r="E6" t="n">
-        <v>448.679670535677</v>
+        <v>448.6796705356769</v>
       </c>
       <c r="F6" t="n">
-        <v>302.145112562562</v>
+        <v>302.1451125625619</v>
       </c>
       <c r="G6" t="n">
         <v>165.4559591202886</v>
       </c>
       <c r="H6" t="n">
-        <v>71.80507655065198</v>
+        <v>71.80507655065196</v>
       </c>
       <c r="I6" t="n">
         <v>51.79985532281972</v>
       </c>
       <c r="J6" t="n">
-        <v>115.2852578226161</v>
+        <v>240.1153828096209</v>
       </c>
       <c r="K6" t="n">
-        <v>563.7673318682816</v>
+        <v>598.8031573431335</v>
       </c>
       <c r="L6" t="n">
-        <v>861.0792809845964</v>
+        <v>896.1151064594483</v>
       </c>
       <c r="M6" t="n">
-        <v>1470.397510810264</v>
+        <v>1262.420995951774</v>
       </c>
       <c r="N6" t="n">
-        <v>1860.807072136007</v>
+        <v>1652.830557277516</v>
       </c>
       <c r="O6" t="n">
-        <v>2195.735752851538</v>
+        <v>1987.759237993047</v>
       </c>
       <c r="P6" t="n">
-        <v>2445.212480716556</v>
+        <v>2237.235965858066</v>
       </c>
       <c r="Q6" t="n">
         <v>2562.061870084021</v>
@@ -4701,22 +4701,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>650.0010001094372</v>
+        <v>1087.825563768798</v>
       </c>
       <c r="C7" t="n">
-        <v>650.0010001094372</v>
+        <v>918.8893808408909</v>
       </c>
       <c r="D7" t="n">
-        <v>499.8843606971014</v>
+        <v>768.7727414285552</v>
       </c>
       <c r="E7" t="n">
-        <v>499.8843606971014</v>
+        <v>620.859647846162</v>
       </c>
       <c r="F7" t="n">
-        <v>473.9697003482517</v>
+        <v>473.9697003482516</v>
       </c>
       <c r="G7" t="n">
-        <v>305.9935116101411</v>
+        <v>305.993511610141</v>
       </c>
       <c r="H7" t="n">
         <v>157.3459760430229</v>
@@ -4725,25 +4725,25 @@
         <v>51.79985532281972</v>
       </c>
       <c r="J7" t="n">
-        <v>77.9810806808055</v>
+        <v>77.98108068080549</v>
       </c>
       <c r="K7" t="n">
         <v>250.8417132121972</v>
       </c>
       <c r="L7" t="n">
-        <v>527.5702436225445</v>
+        <v>527.5702436225444</v>
       </c>
       <c r="M7" t="n">
-        <v>829.7308018317423</v>
+        <v>829.7308018317422</v>
       </c>
       <c r="N7" t="n">
-        <v>1130.141273750634</v>
+        <v>1130.141273750633</v>
       </c>
       <c r="O7" t="n">
         <v>1391.602671897099</v>
       </c>
       <c r="P7" t="n">
-        <v>1591.807384634811</v>
+        <v>1591.80738463481</v>
       </c>
       <c r="Q7" t="n">
         <v>1646.983670153878</v>
@@ -4755,22 +4755,22 @@
         <v>1348.412641916873</v>
       </c>
       <c r="T7" t="n">
-        <v>1125.478067458854</v>
+        <v>1308.618142912328</v>
       </c>
       <c r="U7" t="n">
-        <v>1125.478067458854</v>
+        <v>1308.618142912328</v>
       </c>
       <c r="V7" t="n">
-        <v>870.7935792529673</v>
+        <v>1308.618142912328</v>
       </c>
       <c r="W7" t="n">
-        <v>870.7935792529673</v>
+        <v>1308.618142912328</v>
       </c>
       <c r="X7" t="n">
-        <v>870.7935792529673</v>
+        <v>1308.618142912328</v>
       </c>
       <c r="Y7" t="n">
-        <v>650.0010001094372</v>
+        <v>1087.825563768798</v>
       </c>
     </row>
     <row r="8">
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1741.168338477939</v>
+        <v>1147.214247386505</v>
       </c>
       <c r="C8" t="n">
-        <v>1741.168338477939</v>
+        <v>778.251730446093</v>
       </c>
       <c r="D8" t="n">
-        <v>1382.902639871188</v>
+        <v>778.251730446093</v>
       </c>
       <c r="E8" t="n">
-        <v>997.114387272944</v>
+        <v>778.251730446093</v>
       </c>
       <c r="F8" t="n">
-        <v>586.1284824833365</v>
+        <v>771.3062296968895</v>
       </c>
       <c r="G8" t="n">
-        <v>170.4466406834684</v>
+        <v>355.6243878970215</v>
       </c>
       <c r="H8" t="n">
         <v>51.79985532281972</v>
@@ -4804,25 +4804,25 @@
         <v>51.79985532281972</v>
       </c>
       <c r="J8" t="n">
-        <v>189.9868871104791</v>
+        <v>189.986887110478</v>
       </c>
       <c r="K8" t="n">
-        <v>447.8319447135523</v>
+        <v>447.831944713551</v>
       </c>
       <c r="L8" t="n">
-        <v>804.6133007477401</v>
+        <v>804.6133007477388</v>
       </c>
       <c r="M8" t="n">
-        <v>1233.270741187504</v>
+        <v>1233.270741187503</v>
       </c>
       <c r="N8" t="n">
-        <v>1673.478115539973</v>
+        <v>1673.478115539972</v>
       </c>
       <c r="O8" t="n">
-        <v>2075.818195082063</v>
+        <v>2075.818195082062</v>
       </c>
       <c r="P8" t="n">
-        <v>2384.705143645558</v>
+        <v>2384.705143645557</v>
       </c>
       <c r="Q8" t="n">
         <v>2568.493631507462</v>
@@ -4834,22 +4834,22 @@
         <v>2589.992766140986</v>
       </c>
       <c r="T8" t="n">
-        <v>2381.347406599813</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="U8" t="n">
-        <v>2127.76817854206</v>
+        <v>2336.413538083233</v>
       </c>
       <c r="V8" t="n">
-        <v>2127.76817854206</v>
+        <v>2005.350650739662</v>
       </c>
       <c r="W8" t="n">
-        <v>2127.76817854206</v>
+        <v>1652.581995469548</v>
       </c>
       <c r="X8" t="n">
-        <v>2127.76817854206</v>
+        <v>1533.814087450626</v>
       </c>
       <c r="Y8" t="n">
-        <v>2127.76817854206</v>
+        <v>1533.814087450626</v>
       </c>
     </row>
     <row r="9">
@@ -4868,40 +4868,40 @@
         <v>607.9171255411325</v>
       </c>
       <c r="E9" t="n">
-        <v>448.679670535677</v>
+        <v>448.6796705356769</v>
       </c>
       <c r="F9" t="n">
-        <v>302.145112562562</v>
+        <v>302.1451125625619</v>
       </c>
       <c r="G9" t="n">
         <v>165.4559591202886</v>
       </c>
       <c r="H9" t="n">
-        <v>71.80507655065199</v>
+        <v>71.80507655065196</v>
       </c>
       <c r="I9" t="n">
         <v>51.79985532281972</v>
       </c>
       <c r="J9" t="n">
-        <v>115.2852578226161</v>
+        <v>240.1153828096209</v>
       </c>
       <c r="K9" t="n">
-        <v>301.9467472258287</v>
+        <v>598.8031573431335</v>
       </c>
       <c r="L9" t="n">
-        <v>599.2586963421434</v>
+        <v>896.1151064594483</v>
       </c>
       <c r="M9" t="n">
-        <v>1240.281905962037</v>
+        <v>1262.420995951774</v>
       </c>
       <c r="N9" t="n">
-        <v>1860.807072136007</v>
+        <v>1652.830557277516</v>
       </c>
       <c r="O9" t="n">
-        <v>2195.735752851538</v>
+        <v>1987.759237993047</v>
       </c>
       <c r="P9" t="n">
-        <v>2445.212480716556</v>
+        <v>2237.235965858066</v>
       </c>
       <c r="Q9" t="n">
         <v>2562.061870084021</v>
@@ -4938,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>621.8827939306448</v>
+        <v>472.4514170392433</v>
       </c>
       <c r="C10" t="n">
-        <v>621.8827939306448</v>
+        <v>303.5152341113364</v>
       </c>
       <c r="D10" t="n">
-        <v>621.8827939306448</v>
+        <v>153.3985946990007</v>
       </c>
       <c r="E10" t="n">
-        <v>473.9697003482517</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="F10" t="n">
-        <v>473.9697003482517</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="G10" t="n">
-        <v>305.9935116101411</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="H10" t="n">
-        <v>157.3459760430229</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="I10" t="n">
         <v>51.79985532281972</v>
@@ -4986,28 +4986,28 @@
         <v>1646.983670153878</v>
       </c>
       <c r="R10" t="n">
-        <v>1544.862307910904</v>
+        <v>1646.983670153878</v>
       </c>
       <c r="S10" t="n">
-        <v>1348.412641916872</v>
+        <v>1646.983670153878</v>
       </c>
       <c r="T10" t="n">
-        <v>1125.478067458854</v>
+        <v>1646.983670153878</v>
       </c>
       <c r="U10" t="n">
-        <v>1125.478067458854</v>
+        <v>1646.983670153878</v>
       </c>
       <c r="V10" t="n">
-        <v>1125.478067458854</v>
+        <v>1392.299181947991</v>
       </c>
       <c r="W10" t="n">
-        <v>842.6753730741749</v>
+        <v>1102.882011911031</v>
       </c>
       <c r="X10" t="n">
-        <v>842.6753730741749</v>
+        <v>874.8924610130132</v>
       </c>
       <c r="Y10" t="n">
-        <v>621.8827939306448</v>
+        <v>654.0998818694831</v>
       </c>
     </row>
     <row r="11">
@@ -5020,7 +5020,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5029,61 +5029,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479719</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,34 +5114,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1307.627092998424</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N12" t="n">
-        <v>1307.627092998424</v>
+        <v>1702.07903472198</v>
       </c>
       <c r="O12" t="n">
-        <v>1859.536823237711</v>
+        <v>2253.988764961267</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5175,16 +5175,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1098.667160263526</v>
+        <v>734.6461798836018</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356194</v>
+        <v>565.7099969556949</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232836</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408905</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F13" t="n">
         <v>484.8112968429802</v>
@@ -5193,10 +5193,10 @@
         <v>317.6151975578601</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782958</v>
@@ -5223,28 +5223,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1755.431557602304</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X13" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y13" t="n">
-        <v>1280.315625093766</v>
+        <v>916.2946447138415</v>
       </c>
     </row>
     <row r="14">
@@ -5272,55 +5272,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111716</v>
+        <v>378.192580311171</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075804</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,34 +5351,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K15" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L15" t="n">
-        <v>634.5603720565524</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1231.938859683104</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>1859.536823237711</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>948.5505208511905</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C16" t="n">
-        <v>779.6143379232836</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232836</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408905</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782958</v>
@@ -5460,28 +5460,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1755.431557602304</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1466.014387565343</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>1238.024836667326</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y16" t="n">
-        <v>1130.19898568143</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="17">
@@ -5506,28 +5506,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111703</v>
+        <v>378.192580311171</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075804</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5539,10 +5539,10 @@
         <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
         <v>4405.252601474784</v>
@@ -5551,13 +5551,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,10 +5588,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J18" t="n">
         <v>245.2306927803938</v>
@@ -5606,16 +5606,16 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1859.536823237711</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O18" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5667,10 +5667,10 @@
         <v>177.7213185270447</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782958</v>
@@ -5743,10 +5743,10 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
         <v>95.34095638192593</v>
@@ -5755,46 +5755,46 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,31 +5825,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>409.1360811687895</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>904.4616873845483</v>
       </c>
       <c r="M21" t="n">
-        <v>1072.713683962606</v>
+        <v>1501.8401750111</v>
       </c>
       <c r="N21" t="n">
-        <v>1344.266747951538</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190825</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>721.7774158311365</v>
+        <v>554.5813165460164</v>
       </c>
       <c r="C22" t="n">
-        <v>552.8412329032296</v>
+        <v>385.6451336181095</v>
       </c>
       <c r="D22" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G22" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1896.309668945771</v>
+        <v>1729.113569660651</v>
       </c>
       <c r="V22" t="n">
-        <v>1641.625180739884</v>
+        <v>1474.429081454764</v>
       </c>
       <c r="W22" t="n">
-        <v>1352.208010702924</v>
+        <v>1185.011911417804</v>
       </c>
       <c r="X22" t="n">
-        <v>1124.218459804906</v>
+        <v>957.0223605197863</v>
       </c>
       <c r="Y22" t="n">
-        <v>903.4258806613763</v>
+        <v>736.2297813762561</v>
       </c>
     </row>
     <row r="23">
@@ -5983,28 +5983,28 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6053,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6062,34 +6062,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>409.1360811687895</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>904.4616873845483</v>
       </c>
       <c r="M24" t="n">
-        <v>1670.092171589158</v>
+        <v>1501.8401750111</v>
       </c>
       <c r="N24" t="n">
-        <v>2297.690135143765</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O24" t="n">
-        <v>2516.421633107662</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>801.6918836311989</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C25" t="n">
-        <v>632.7557007032921</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D25" t="n">
-        <v>632.7557007032921</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E25" t="n">
-        <v>484.8426071208989</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F25" t="n">
-        <v>337.9526596229886</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G25" t="n">
-        <v>175.9033664000583</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y25" t="n">
-        <v>983.3403484614387</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="26">
@@ -6208,28 +6208,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6238,10 +6238,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6302,25 +6302,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>2297.690135143765</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="29">
@@ -6451,37 +6451,37 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q29" t="n">
         <v>4562.265728852255</v>
@@ -6539,31 +6539,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L30" t="n">
-        <v>740.5562989961525</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>740.5562989961525</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>931.4710609784063</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C31" t="n">
-        <v>762.5348780504994</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D31" t="n">
-        <v>612.4182386381636</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E31" t="n">
-        <v>464.5051450557705</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F31" t="n">
-        <v>317.6151975578602</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W31" t="n">
-        <v>1500.747069396417</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>1333.912104952176</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y31" t="n">
-        <v>1113.119525808646</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="32">
@@ -6676,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
@@ -6733,19 +6733,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6776,31 +6776,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L33" t="n">
-        <v>1058.183521551621</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1655.562009178173</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>2283.159972732779</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>988.1395539230176</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C34" t="n">
-        <v>819.2033709951107</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D34" t="n">
-        <v>669.086731582775</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E34" t="n">
-        <v>521.1736380003819</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F34" t="n">
-        <v>374.2836905024715</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G34" t="n">
-        <v>207.0875912173514</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6882,28 +6882,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487568</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T34" t="n">
-        <v>2197.062545487568</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U34" t="n">
-        <v>1907.987318831765</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V34" t="n">
-        <v>1907.987318831765</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W34" t="n">
-        <v>1618.570148794805</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X34" t="n">
-        <v>1390.580597896787</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y34" t="n">
-        <v>1169.788018753257</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="35">
@@ -6925,28 +6925,28 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
         <v>2950.898526355936</v>
@@ -7019,25 +7019,25 @@
         <v>245.2306927803938</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516144</v>
+        <v>280.8495004245705</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167373</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M36" t="n">
-        <v>1671.859558793925</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N36" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>580.8993044876693</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C37" t="n">
-        <v>411.9631215597624</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D37" t="n">
-        <v>411.9631215597624</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E37" t="n">
-        <v>411.9631215597624</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F37" t="n">
-        <v>411.9631215597624</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G37" t="n">
-        <v>244.7670222746423</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H37" t="n">
-        <v>103.0551911168404</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7119,28 +7119,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V37" t="n">
-        <v>1500.747069396417</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="W37" t="n">
-        <v>1211.329899359456</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="X37" t="n">
-        <v>983.3403484614391</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y37" t="n">
-        <v>762.547769317909</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="38">
@@ -7162,49 +7162,49 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q38" t="n">
         <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
         <v>4151.812499466573</v>
@@ -7213,10 +7213,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7238,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7247,31 +7247,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J39" t="n">
         <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516144</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="L39" t="n">
-        <v>1074.481071167373</v>
+        <v>315.9123021921476</v>
       </c>
       <c r="M39" t="n">
-        <v>1671.859558793925</v>
+        <v>913.2907898186995</v>
       </c>
       <c r="N39" t="n">
-        <v>2299.457522348532</v>
+        <v>1540.888753373306</v>
       </c>
       <c r="O39" t="n">
-        <v>2299.457522348532</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="P39" t="n">
-        <v>2299.457522348532</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q39" t="n">
         <v>2516.421633107662</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>2824.769373306004</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C40" t="n">
-        <v>2655.833190378097</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D40" t="n">
-        <v>2655.833190378097</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E40" t="n">
-        <v>2655.833190378097</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F40" t="n">
-        <v>2655.833190378097</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G40" t="n">
-        <v>2488.637091092977</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H40" t="n">
-        <v>2346.925259935175</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I40" t="n">
-        <v>2337.686731866305</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>2417.922750296629</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>2679.612012822168</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>3070.010606998108</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
-        <v>3492.020309729143</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>3909.430181389151</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>4278.959462098136</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
-        <v>4571.634917671695</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>4690.833152398594</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>4690.833152398594</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>4507.978318053499</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>4288.37685307644</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>3999.301626420638</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="V40" t="n">
-        <v>3744.617138214751</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="W40" t="n">
-        <v>3455.199968177791</v>
+        <v>1688.043910473548</v>
       </c>
       <c r="X40" t="n">
-        <v>3227.210417279774</v>
+        <v>1460.054359575531</v>
       </c>
       <c r="Y40" t="n">
-        <v>3006.417838136244</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="41">
@@ -7390,61 +7390,61 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362692</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
         <v>3820.749612123003</v>
@@ -7475,7 +7475,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7484,31 +7484,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J42" t="n">
         <v>245.2306927803938</v>
       </c>
       <c r="K42" t="n">
-        <v>245.2306927803938</v>
+        <v>280.8495004245705</v>
       </c>
       <c r="L42" t="n">
-        <v>740.5562989961526</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M42" t="n">
-        <v>1337.934786622704</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N42" t="n">
-        <v>1965.532750177311</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O42" t="n">
-        <v>1965.532750177311</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2389.15589967238</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
         <v>2553.061288060775</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>929.7309773356194</v>
+        <v>580.0655846733346</v>
       </c>
       <c r="C43" t="n">
-        <v>929.7309773356194</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D43" t="n">
-        <v>779.6143379232836</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E43" t="n">
-        <v>631.7012443408905</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782958</v>
@@ -7593,28 +7593,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.129363765926</v>
       </c>
       <c r="S43" t="n">
-        <v>2264.108249235165</v>
+        <v>2263.274529420831</v>
       </c>
       <c r="T43" t="n">
-        <v>2044.506784258106</v>
+        <v>2043.673064443772</v>
       </c>
       <c r="U43" t="n">
-        <v>1755.431557602304</v>
+        <v>1754.597837787969</v>
       </c>
       <c r="V43" t="n">
-        <v>1500.747069396417</v>
+        <v>1499.913349582082</v>
       </c>
       <c r="W43" t="n">
-        <v>1211.329899359456</v>
+        <v>1210.496179545122</v>
       </c>
       <c r="X43" t="n">
-        <v>1150.523556479149</v>
+        <v>982.5066286471044</v>
       </c>
       <c r="Y43" t="n">
-        <v>929.7309773356194</v>
+        <v>761.7140495035743</v>
       </c>
     </row>
     <row r="44">
@@ -7627,70 +7627,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7712,7 +7712,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7721,34 +7721,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>244.2098454714573</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>739.5354516872161</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1336.913939313768</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1964.511902868375</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400717</v>
+        <v>721.7774158311365</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121648</v>
+        <v>552.8412329032296</v>
       </c>
       <c r="D46" t="n">
-        <v>194.8007783998291</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E46" t="n">
-        <v>194.8007783998291</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F46" t="n">
-        <v>194.8007783998291</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797189</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703114</v>
+        <v>903.4258806613763</v>
       </c>
     </row>
   </sheetData>
@@ -7978,13 +7978,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>248.4615042601748</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -7993,16 +7993,16 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>369.603020508345</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>103.8691969711286</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q2" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>65.71641987298243</v>
+        <v>26.19461818159724</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8066,19 +8066,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>43.87169338513883</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>359.282160794506</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>66.98553110339714</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,16 +8294,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>173.7639243740404</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>245.4670104377197</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -8315,7 +8315,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>20.18437503906578</v>
@@ -8531,19 +8531,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>173.7639243740404</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>277.4922425530996</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>232.4400048971988</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -8552,10 +8552,10 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>20.1843750390658</v>
+        <v>20.18437503906578</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8698,7 +8698,7 @@
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>-1.972915003185951e-13</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
@@ -9646,7 +9646,7 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>-1.972915003185951e-13</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -10597,7 +10597,7 @@
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>-8.988773068867788e-13</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
         <v>0</v>
@@ -23421,13 +23421,13 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>68.52575990662478</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23475,16 +23475,16 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>260.4525338942701</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23661,19 +23661,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23712,7 +23712,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>111.8370608760579</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23907,7 +23907,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>57.22910392194173</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856552</v>
@@ -24141,13 +24141,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24183,7 +24183,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>139.469330230033</v>
+        <v>40.32043864788537</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24372,19 +24372,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>5.095338001567882</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24615,13 +24615,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24843,22 +24843,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24900,10 +24900,10 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>60.54304058923881</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25080,22 +25080,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>109.4223302771036</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,19 +25122,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25317,13 +25317,13 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25332,7 +25332,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>72.11969353038565</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25371,13 +25371,13 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>101.1181252153545</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25554,13 +25554,13 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25569,7 +25569,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>72.11969353038469</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25605,10 +25605,10 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>40.64330621514762</v>
       </c>
     </row>
     <row r="41">
@@ -25785,28 +25785,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>65.54986409393054</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25851,7 +25851,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>165.5113759375332</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26037,13 +26037,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>65.54986409393025</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>205.8445769401546</v>
       </c>
     </row>
   </sheetData>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>793113.3107117728</v>
+        <v>793113.3107117724</v>
       </c>
     </row>
     <row r="3">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>752100.1003983668</v>
+        <v>752100.1003983667</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>752100.1003983667</v>
+        <v>752100.1003983666</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>752100.1003983667</v>
+        <v>752100.1003983666</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>752100.1003983667</v>
+        <v>752100.1003983666</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>752100.1003983667</v>
+        <v>752100.1003983666</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>752100.1003983668</v>
+        <v>752100.1003983666</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>752100.1003983667</v>
+        <v>752100.1003983668</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>752100.1003983668</v>
+        <v>752100.1003983666</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>752100.1003983666</v>
+        <v>752100.1003983667</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>677359.4601380334</v>
+        <v>677359.4601380335</v>
       </c>
       <c r="C2" t="n">
-        <v>677359.4601380341</v>
+        <v>677359.460138034</v>
       </c>
       <c r="D2" t="n">
-        <v>677359.4601380341</v>
+        <v>677359.460138034</v>
       </c>
       <c r="E2" t="n">
+        <v>665895.944744255</v>
+      </c>
+      <c r="F2" t="n">
         <v>665895.9447442553</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
+        <v>665895.9447442555</v>
+      </c>
+      <c r="H2" t="n">
+        <v>665895.9447442552</v>
+      </c>
+      <c r="I2" t="n">
+        <v>665895.9447442554</v>
+      </c>
+      <c r="J2" t="n">
+        <v>665895.944744255</v>
+      </c>
+      <c r="K2" t="n">
+        <v>665895.9447442553</v>
+      </c>
+      <c r="L2" t="n">
+        <v>665895.9447442553</v>
+      </c>
+      <c r="M2" t="n">
+        <v>665895.944744255</v>
+      </c>
+      <c r="N2" t="n">
+        <v>665895.9447442554</v>
+      </c>
+      <c r="O2" t="n">
+        <v>665895.944744255</v>
+      </c>
+      <c r="P2" t="n">
         <v>665895.9447442548</v>
-      </c>
-      <c r="G2" t="n">
-        <v>665895.9447442552</v>
-      </c>
-      <c r="H2" t="n">
-        <v>665895.9447442549</v>
-      </c>
-      <c r="I2" t="n">
-        <v>665895.9447442553</v>
-      </c>
-      <c r="J2" t="n">
-        <v>665895.9447442549</v>
-      </c>
-      <c r="K2" t="n">
-        <v>665895.9447442548</v>
-      </c>
-      <c r="L2" t="n">
-        <v>665895.9447442552</v>
-      </c>
-      <c r="M2" t="n">
-        <v>665895.9447442548</v>
-      </c>
-      <c r="N2" t="n">
-        <v>665895.9447442549</v>
-      </c>
-      <c r="O2" t="n">
-        <v>665895.9447442553</v>
-      </c>
-      <c r="P2" t="n">
-        <v>665895.9447442553</v>
       </c>
     </row>
     <row r="3">
@@ -26365,10 +26365,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>939682.9358753958</v>
+        <v>939682.9358753987</v>
       </c>
       <c r="C3" t="n">
-        <v>172764.3597898952</v>
+        <v>172764.3597898924</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>169414.0168260481</v>
+        <v>169414.016826048</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>1.62584001373034e-10</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>130884.4569042352</v>
+        <v>130884.4569042353</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>159785.8388151604</v>
+        <v>159785.8388151599</v>
       </c>
       <c r="C4" t="n">
         <v>129066.7547252479</v>
@@ -26426,40 +26426,40 @@
         <v>129066.754725248</v>
       </c>
       <c r="E4" t="n">
-        <v>6287.480531695023</v>
+        <v>6287.480531695014</v>
       </c>
       <c r="F4" t="n">
+        <v>6287.480531695052</v>
+      </c>
+      <c r="G4" t="n">
+        <v>6287.480531694995</v>
+      </c>
+      <c r="H4" t="n">
+        <v>6287.480531695052</v>
+      </c>
+      <c r="I4" t="n">
+        <v>6287.480531695024</v>
+      </c>
+      <c r="J4" t="n">
+        <v>6287.480531695052</v>
+      </c>
+      <c r="K4" t="n">
+        <v>6287.480531695035</v>
+      </c>
+      <c r="L4" t="n">
+        <v>6287.480531695052</v>
+      </c>
+      <c r="M4" t="n">
+        <v>6287.480531695052</v>
+      </c>
+      <c r="N4" t="n">
         <v>6287.480531695051</v>
-      </c>
-      <c r="G4" t="n">
-        <v>6287.480531695051</v>
-      </c>
-      <c r="H4" t="n">
-        <v>6287.480531695051</v>
-      </c>
-      <c r="I4" t="n">
-        <v>6287.480531695051</v>
-      </c>
-      <c r="J4" t="n">
-        <v>6287.480531695051</v>
-      </c>
-      <c r="K4" t="n">
-        <v>6287.480531695051</v>
-      </c>
-      <c r="L4" t="n">
-        <v>6287.480531695051</v>
-      </c>
-      <c r="M4" t="n">
-        <v>6287.48053169503</v>
-      </c>
-      <c r="N4" t="n">
-        <v>6287.480531695052</v>
       </c>
       <c r="O4" t="n">
         <v>6287.480531695052</v>
       </c>
       <c r="P4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695052</v>
       </c>
     </row>
     <row r="5">
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>89345.07489699085</v>
+        <v>89345.0748969909</v>
       </c>
       <c r="C5" t="n">
         <v>93481.0893615096</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-511454.3894495136</v>
+        <v>-511454.389449516</v>
       </c>
       <c r="C6" t="n">
-        <v>282047.2562613814</v>
+        <v>282047.2562613841</v>
       </c>
       <c r="D6" t="n">
-        <v>454811.6160512765</v>
+        <v>454811.6160512764</v>
       </c>
       <c r="E6" t="n">
-        <v>57597.06664290219</v>
+        <v>57249.68738854511</v>
       </c>
       <c r="F6" t="n">
-        <v>558485.9343886527</v>
+        <v>558138.5551342962</v>
       </c>
       <c r="G6" t="n">
-        <v>558485.934388653</v>
+        <v>558138.5551342964</v>
       </c>
       <c r="H6" t="n">
-        <v>558485.9343886529</v>
+        <v>558138.555134296</v>
       </c>
       <c r="I6" t="n">
-        <v>558485.9343886531</v>
+        <v>558138.5551342962</v>
       </c>
       <c r="J6" t="n">
-        <v>389071.9175626047</v>
+        <v>388724.5383082479</v>
       </c>
       <c r="K6" t="n">
-        <v>558485.9343886527</v>
+        <v>558138.5551342962</v>
       </c>
       <c r="L6" t="n">
-        <v>558485.9343886529</v>
+        <v>558138.5551342962</v>
       </c>
       <c r="M6" t="n">
-        <v>427601.4774844174</v>
+        <v>427254.0982300606</v>
       </c>
       <c r="N6" t="n">
-        <v>558485.9343886527</v>
+        <v>558138.5551342963</v>
       </c>
       <c r="O6" t="n">
-        <v>558485.9343886531</v>
+        <v>558138.555134296</v>
       </c>
       <c r="P6" t="n">
-        <v>558485.9343886531</v>
+        <v>558138.5551342958</v>
       </c>
     </row>
   </sheetData>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>749.9809564976077</v>
+        <v>749.9809564976108</v>
       </c>
       <c r="C3" t="n">
         <v>939.7063906498446</v>
       </c>
       <c r="D3" t="n">
-        <v>939.7063906498445</v>
+        <v>939.7063906498446</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26792,25 +26792,25 @@
         <v>647.4981915352465</v>
       </c>
       <c r="C4" t="n">
-        <v>647.4981915352465</v>
+        <v>647.4981915352464</v>
       </c>
       <c r="D4" t="n">
-        <v>647.4981915352465</v>
+        <v>647.4981915352464</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
@@ -26825,13 +26825,13 @@
         <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
     </row>
   </sheetData>
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>749.9809564976077</v>
+        <v>749.9809564976108</v>
       </c>
       <c r="C3" t="n">
-        <v>189.7254341522369</v>
+        <v>189.7254341522338</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>428.2691096918295</v>
+        <v>428.2691096918294</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26989,7 +26989,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>525.2100965644019</v>
+        <v>525.2100965644022</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>647.4981915352465</v>
+        <v>647.4981915352464</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>525.210096564402</v>
+        <v>525.2100965644022</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>525.2100965644019</v>
+        <v>525.2100965644022</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,28 +27378,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>308.5974454495114</v>
+        <v>308.5974454495113</v>
       </c>
       <c r="I2" t="n">
-        <v>94.24014755885203</v>
+        <v>94.24014755885155</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,22 +27429,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>140.315783973424</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>209.8976922291835</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.1044530022292</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>42.00484430401275</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>340.6329984536785</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27536,28 +27536,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>79.74934544940214</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>105.2578428433175</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>150.2028876639205</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>114.7793764994862</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,19 +27584,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>116.48346005197</v>
+        <v>116.4834600519698</v>
       </c>
       <c r="S4" t="n">
         <v>200.4475243713015</v>
       </c>
       <c r="T4" t="n">
-        <v>222.1670476323163</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.245260737819</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27605,7 +27605,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27615,10 +27615,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>62.76532734210173</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27630,10 +27630,10 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>164.2489018032902</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>300.7862872484598</v>
       </c>
       <c r="I5" t="n">
         <v>64.83556544767973</v>
@@ -27678,13 +27678,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27776,16 +27776,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>119.76553427757</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -27827,13 +27827,13 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>181.3086746989391</v>
       </c>
       <c r="U7" t="n">
         <v>286.2265992197056</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27855,22 +27855,22 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>183.3259697414175</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>64.83556544767973</v>
@@ -27906,19 +27906,19 @@
         <v>122.935408774453</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.5589059457607</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>252.1508717397369</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -28010,28 +28010,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>45.85121066415</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.2964268507295</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.161060211447</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>104.4906595130011</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,25 +28058,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.1001486205444</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.4851693340911</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7052287134384</v>
       </c>
       <c r="U10" t="n">
         <v>286.2265992197056</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>6.548330895758966</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28092,7 +28092,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>-8.360392837795219e-13</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.014998820090883</v>
+        <v>3.014998820090895</v>
       </c>
       <c r="H2" t="n">
-        <v>30.87735666625576</v>
+        <v>30.87735666625589</v>
       </c>
       <c r="I2" t="n">
-        <v>116.2357420115539</v>
+        <v>116.2357420115544</v>
       </c>
       <c r="J2" t="n">
-        <v>255.8942561066888</v>
+        <v>255.8942561066899</v>
       </c>
       <c r="K2" t="n">
-        <v>383.519156161136</v>
+        <v>383.5191561611376</v>
       </c>
       <c r="L2" t="n">
-        <v>475.7894263014924</v>
+        <v>475.7894263014944</v>
       </c>
       <c r="M2" t="n">
-        <v>529.4074115682837</v>
+        <v>529.4074115682859</v>
       </c>
       <c r="N2" t="n">
-        <v>537.9737769658669</v>
+        <v>537.9737769658691</v>
       </c>
       <c r="O2" t="n">
-        <v>507.9933824485882</v>
+        <v>507.9933824485902</v>
       </c>
       <c r="P2" t="n">
-        <v>433.5605990775944</v>
+        <v>433.5605990775962</v>
       </c>
       <c r="Q2" t="n">
-        <v>325.5859538330896</v>
+        <v>325.5859538330909</v>
       </c>
       <c r="R2" t="n">
-        <v>189.3909196325341</v>
+        <v>189.3909196325349</v>
       </c>
       <c r="S2" t="n">
-        <v>68.70428561282107</v>
+        <v>68.70428561282135</v>
       </c>
       <c r="T2" t="n">
-        <v>13.19815733494785</v>
+        <v>13.1981573349479</v>
       </c>
       <c r="U2" t="n">
-        <v>0.2411999056072706</v>
+        <v>0.2411999056072716</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.6131665856741</v>
+        <v>1.613166585674106</v>
       </c>
       <c r="H3" t="n">
-        <v>15.57979307743144</v>
+        <v>15.5797930774315</v>
       </c>
       <c r="I3" t="n">
-        <v>55.54104253307757</v>
+        <v>55.54104253307779</v>
       </c>
       <c r="J3" t="n">
-        <v>152.4088658859903</v>
+        <v>152.4088658859909</v>
       </c>
       <c r="K3" t="n">
-        <v>260.491027126155</v>
+        <v>260.491027126156</v>
       </c>
       <c r="L3" t="n">
-        <v>350.2623325605101</v>
+        <v>350.2623325605116</v>
       </c>
       <c r="M3" t="n">
-        <v>408.7396212911962</v>
+        <v>408.7396212911979</v>
       </c>
       <c r="N3" t="n">
-        <v>419.5577428240721</v>
+        <v>419.5577428240738</v>
       </c>
       <c r="O3" t="n">
-        <v>383.8133674257144</v>
+        <v>383.813367425716</v>
       </c>
       <c r="P3" t="n">
-        <v>308.0440649433287</v>
+        <v>308.04406494333</v>
       </c>
       <c r="Q3" t="n">
-        <v>205.9192996028904</v>
+        <v>205.9192996028912</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526428</v>
+        <v>100.1578341526432</v>
       </c>
       <c r="S3" t="n">
-        <v>29.96386179969214</v>
+        <v>29.96386179969226</v>
       </c>
       <c r="T3" t="n">
-        <v>6.502193386993408</v>
+        <v>6.502193386993435</v>
       </c>
       <c r="U3" t="n">
-        <v>0.106129380636454</v>
+        <v>0.1061293806364544</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.352424675651424</v>
+        <v>1.352424675651429</v>
       </c>
       <c r="H4" t="n">
-        <v>12.02428484351903</v>
+        <v>12.02428484351908</v>
       </c>
       <c r="I4" t="n">
-        <v>40.67109842777192</v>
+        <v>40.67109842777208</v>
       </c>
       <c r="J4" t="n">
-        <v>95.61642456855564</v>
+        <v>95.61642456855604</v>
       </c>
       <c r="K4" t="n">
-        <v>157.1271577711381</v>
+        <v>157.1271577711387</v>
       </c>
       <c r="L4" t="n">
-        <v>201.0686649600308</v>
+        <v>201.0686649600316</v>
       </c>
       <c r="M4" t="n">
-        <v>211.9987152932499</v>
+        <v>211.9987152932508</v>
       </c>
       <c r="N4" t="n">
-        <v>206.9578596840039</v>
+        <v>206.9578596840047</v>
       </c>
       <c r="O4" t="n">
-        <v>191.1590805184395</v>
+        <v>191.1590805184402</v>
       </c>
       <c r="P4" t="n">
-        <v>163.5696171351503</v>
+        <v>163.569617135151</v>
       </c>
       <c r="Q4" t="n">
-        <v>113.2471244311388</v>
+        <v>113.2471244311392</v>
       </c>
       <c r="R4" t="n">
-        <v>60.80993132519945</v>
+        <v>60.8099313251997</v>
       </c>
       <c r="S4" t="n">
-        <v>23.56907366567071</v>
+        <v>23.56907366567081</v>
       </c>
       <c r="T4" t="n">
-        <v>5.778541795965173</v>
+        <v>5.778541795965196</v>
       </c>
       <c r="U4" t="n">
-        <v>0.07376861867189592</v>
+        <v>0.07376861867189623</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31515,7 +31515,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.777714133265703</v>
+        <v>3.777714133265704</v>
       </c>
       <c r="H8" t="n">
         <v>38.6885148673074</v>
@@ -31527,37 +31527,37 @@
         <v>320.6287649182603</v>
       </c>
       <c r="K8" t="n">
-        <v>480.5394041793976</v>
+        <v>480.5394041793977</v>
       </c>
       <c r="L8" t="n">
         <v>596.1516230853281</v>
       </c>
       <c r="M8" t="n">
-        <v>663.3335468027919</v>
+        <v>663.3335468027921</v>
       </c>
       <c r="N8" t="n">
         <v>674.0669770839332</v>
       </c>
       <c r="O8" t="n">
-        <v>636.5023321712723</v>
+        <v>636.5023321712724</v>
       </c>
       <c r="P8" t="n">
         <v>543.2400145062752</v>
       </c>
       <c r="Q8" t="n">
-        <v>407.950627108697</v>
+        <v>407.9506271086971</v>
       </c>
       <c r="R8" t="n">
         <v>237.301835423752</v>
       </c>
       <c r="S8" t="n">
-        <v>86.0846608117923</v>
+        <v>86.08466081179232</v>
       </c>
       <c r="T8" t="n">
-        <v>16.53694361837062</v>
+        <v>16.53694361837063</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3022171306612562</v>
+        <v>0.3022171306612563</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31600,7 +31600,7 @@
         <v>19.52107049255621</v>
       </c>
       <c r="I9" t="n">
-        <v>69.59146383586113</v>
+        <v>69.59146383586115</v>
       </c>
       <c r="J9" t="n">
         <v>190.9642958583802</v>
@@ -31621,19 +31621,19 @@
         <v>480.9080431470011</v>
       </c>
       <c r="P9" t="n">
-        <v>385.9711022274805</v>
+        <v>385.9711022274806</v>
       </c>
       <c r="Q9" t="n">
-        <v>258.0114603157837</v>
+        <v>258.0114603157838</v>
       </c>
       <c r="R9" t="n">
         <v>125.4951289248982</v>
       </c>
       <c r="S9" t="n">
-        <v>37.54392985284989</v>
+        <v>37.5439298528499</v>
       </c>
       <c r="T9" t="n">
-        <v>8.147077103841573</v>
+        <v>8.147077103841575</v>
       </c>
       <c r="U9" t="n">
         <v>0.1329773194315818</v>
@@ -31679,25 +31679,25 @@
         <v>15.0661122959926</v>
       </c>
       <c r="I10" t="n">
-        <v>50.95981541425715</v>
+        <v>50.95981541425716</v>
       </c>
       <c r="J10" t="n">
         <v>119.8048622964564</v>
       </c>
       <c r="K10" t="n">
-        <v>196.8761913525411</v>
+        <v>196.8761913525412</v>
       </c>
       <c r="L10" t="n">
         <v>251.9337428309436</v>
       </c>
       <c r="M10" t="n">
-        <v>265.6288080979551</v>
+        <v>265.6288080979552</v>
       </c>
       <c r="N10" t="n">
-        <v>259.3127487509646</v>
+        <v>259.3127487509647</v>
       </c>
       <c r="O10" t="n">
-        <v>239.5172944561276</v>
+        <v>239.5172944561277</v>
       </c>
       <c r="P10" t="n">
         <v>204.9484232984512</v>
@@ -31706,16 +31706,16 @@
         <v>141.8956649881265</v>
       </c>
       <c r="R10" t="n">
-        <v>76.19324275662507</v>
+        <v>76.19324275662508</v>
       </c>
       <c r="S10" t="n">
-        <v>29.53142870288116</v>
+        <v>29.53142870288117</v>
       </c>
       <c r="T10" t="n">
-        <v>7.240360714843061</v>
+        <v>7.240360714843062</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0924301367852307</v>
+        <v>0.09243013678523071</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31837,7 +31837,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
@@ -31849,22 +31849,22 @@
         <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>379.4203056753698</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
         <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>436.0678650906011</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742439</v>
@@ -32074,16 +32074,16 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>533.6019216797993</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
         <v>745.5466476862122</v>
@@ -32092,16 +32092,16 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742439</v>
@@ -32326,19 +32326,19 @@
         <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>320.9147064709962</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742439</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>303.4024373464759</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>405.6377363145776</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>303.4024373464759</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>363.5371514786841</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,34 +33016,34 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>391.925066926462</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33052,13 +33052,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,10 +33253,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
         <v>101.3076196007749</v>
@@ -33265,37 +33265,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>704.1404939038099</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33496,7 +33496,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
@@ -33505,7 +33505,7 @@
         <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>624.2063432190395</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862122</v>
@@ -33514,16 +33514,16 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742439</v>
@@ -33654,7 +33654,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
@@ -33739,7 +33739,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422586</v>
+        <v>173.8200325543355</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473073</v>
@@ -33751,7 +33751,7 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>361.7519118779092</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33760,7 +33760,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742439</v>
@@ -33976,10 +33976,10 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>209.9499448422519</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862122</v>
@@ -33988,13 +33988,13 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q39" t="n">
-        <v>359.1374415194863</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>182.6892564418561</v>
@@ -34128,7 +34128,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34213,7 +34213,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>173.8200325543355</v>
       </c>
       <c r="L42" t="n">
         <v>638.8832749473073</v>
@@ -34225,13 +34225,13 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>305.542772458138</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
@@ -34359,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34371,31 +34371,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,31 +34438,31 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>289.7537444526271</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34471,16 +34471,16 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>243.9449667520763</v>
+        <v>74.84835158000359</v>
       </c>
       <c r="K2" t="n">
-        <v>163.4293051161554</v>
+        <v>487.5747176873218</v>
       </c>
       <c r="L2" t="n">
-        <v>240.0230113315052</v>
+        <v>488.4845155916819</v>
       </c>
       <c r="M2" t="n">
-        <v>299.061178341011</v>
+        <v>299.0611783410131</v>
       </c>
       <c r="N2" t="n">
-        <v>308.560713369276</v>
+        <v>308.5607133692782</v>
       </c>
       <c r="O2" t="n">
-        <v>647.4981915352465</v>
+        <v>277.8951710269035</v>
       </c>
       <c r="P2" t="n">
-        <v>306.1968002934535</v>
+        <v>524.1263114938092</v>
       </c>
       <c r="Q2" t="n">
-        <v>315.5952546185448</v>
+        <v>103.2802639586414</v>
       </c>
       <c r="R2" t="n">
-        <v>39.52180169138441</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>151.6622745597324</v>
+        <v>25.57123921932421</v>
       </c>
       <c r="K3" t="n">
-        <v>122.649588151796</v>
+        <v>122.649588151797</v>
       </c>
       <c r="L3" t="n">
-        <v>582.5482980840951</v>
+        <v>582.5482980840966</v>
       </c>
       <c r="M3" t="n">
-        <v>266.6055873691778</v>
+        <v>310.4772807543184</v>
       </c>
       <c r="N3" t="n">
-        <v>288.2160307407388</v>
+        <v>647.4981915352465</v>
       </c>
       <c r="O3" t="n">
-        <v>635.0794422579995</v>
+        <v>635.0794422580011</v>
       </c>
       <c r="P3" t="n">
-        <v>241.0551886323956</v>
+        <v>174.0696575289998</v>
       </c>
       <c r="Q3" t="n">
-        <v>276.0148132527179</v>
+        <v>65.9375255168697</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>2.257244451882869</v>
+        <v>2.257244451883267</v>
       </c>
       <c r="K4" t="n">
-        <v>134.8576659452552</v>
+        <v>134.8576659452559</v>
       </c>
       <c r="L4" t="n">
-        <v>228.6586902203469</v>
+        <v>228.6586902203478</v>
       </c>
       <c r="M4" t="n">
-        <v>251.5825922550905</v>
+        <v>251.5825922550914</v>
       </c>
       <c r="N4" t="n">
-        <v>251.0900320632325</v>
+        <v>251.0900320632333</v>
       </c>
       <c r="O4" t="n">
-        <v>215.7442084324792</v>
+        <v>215.7442084324799</v>
       </c>
       <c r="P4" t="n">
-        <v>160.8481764000438</v>
+        <v>160.8481764000445</v>
       </c>
       <c r="Q4" t="n">
-        <v>27.08508117944437</v>
+        <v>27.08508117944484</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35014,16 +35014,16 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>64.12666919171355</v>
+        <v>190.2177045321224</v>
       </c>
       <c r="K6" t="n">
-        <v>453.0121960057227</v>
+        <v>362.3108833671845</v>
       </c>
       <c r="L6" t="n">
         <v>300.3151001174896</v>
       </c>
       <c r="M6" t="n">
-        <v>615.4729594198666</v>
+        <v>370.0059489821469</v>
       </c>
       <c r="N6" t="n">
         <v>394.3530922482246</v>
@@ -35035,7 +35035,7 @@
         <v>251.9966948131503</v>
       </c>
       <c r="Q6" t="n">
-        <v>118.0296862297623</v>
+        <v>328.1069739656114</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>139.582860391574</v>
+        <v>139.5828603915741</v>
       </c>
       <c r="K8" t="n">
-        <v>260.4495531344171</v>
+        <v>260.4495531344172</v>
       </c>
       <c r="L8" t="n">
         <v>360.3852081153408</v>
       </c>
       <c r="M8" t="n">
-        <v>432.9873135755192</v>
+        <v>432.9873135755194</v>
       </c>
       <c r="N8" t="n">
         <v>444.6539134873423</v>
       </c>
       <c r="O8" t="n">
-        <v>406.4041207495856</v>
+        <v>406.4041207495857</v>
       </c>
       <c r="P8" t="n">
         <v>312.0070187510057</v>
       </c>
       <c r="Q8" t="n">
-        <v>185.6449372342475</v>
+        <v>185.6449372342476</v>
       </c>
       <c r="R8" t="n">
-        <v>21.71629760961983</v>
+        <v>21.71629760961986</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>64.12666919171352</v>
+        <v>190.2177045321224</v>
       </c>
       <c r="K9" t="n">
-        <v>188.5469589931441</v>
+        <v>362.3108833671845</v>
       </c>
       <c r="L9" t="n">
         <v>300.3151001174896</v>
       </c>
       <c r="M9" t="n">
-        <v>647.4981915352465</v>
+        <v>370.0059489821469</v>
       </c>
       <c r="N9" t="n">
-        <v>626.7930971454234</v>
+        <v>394.3530922482246</v>
       </c>
       <c r="O9" t="n">
-        <v>338.3117987025566</v>
+        <v>338.3117987025567</v>
       </c>
       <c r="P9" t="n">
         <v>251.9966948131503</v>
       </c>
       <c r="Q9" t="n">
-        <v>118.0296862297622</v>
+        <v>328.1069739656114</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,7 +35330,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>26.4456821797836</v>
+        <v>26.44568217978362</v>
       </c>
       <c r="K10" t="n">
         <v>174.6066995266583</v>
@@ -35339,10 +35339,10 @@
         <v>279.5237680912597</v>
       </c>
       <c r="M10" t="n">
-        <v>305.2126850597957</v>
+        <v>305.2126850597958</v>
       </c>
       <c r="N10" t="n">
-        <v>303.4449211301932</v>
+        <v>303.4449211301933</v>
       </c>
       <c r="O10" t="n">
         <v>264.1024223701673</v>
@@ -35351,7 +35351,7 @@
         <v>202.2269825633447</v>
       </c>
       <c r="Q10" t="n">
-        <v>55.73362173643211</v>
+        <v>55.73362173643214</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35418,7 +35418,7 @@
         <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902934</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
         <v>751.8584478193518</v>
@@ -35485,7 +35485,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
@@ -35497,22 +35497,22 @@
         <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
-        <v>237.2862717533515</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
         <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>302.0934576762708</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35646,7 +35646,7 @@
         <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396415</v>
       </c>
       <c r="K14" t="n">
         <v>479.4543240367771</v>
@@ -35722,16 +35722,16 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>395.0475418999251</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
@@ -35740,16 +35740,16 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35883,7 +35883,7 @@
         <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396415</v>
       </c>
       <c r="K17" t="n">
         <v>479.4543240367771</v>
@@ -35974,19 +35974,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>189.5729943876629</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,31 +36196,31 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>165.5609983721169</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>274.2960242312443</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902934</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,34 +36433,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>165.5609983721169</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>220.9409070342396</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902952</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36679,19 +36679,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>257.9506595121318</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924719</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,34 +36907,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>572.7987818204766</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37153,7 +37153,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>485.6519634391653</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
@@ -37162,16 +37162,16 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37302,7 +37302,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
@@ -37317,7 +37317,7 @@
         <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193505</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
         <v>696.4886512243162</v>
@@ -37387,7 +37387,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>35.97859357997653</v>
       </c>
       <c r="L36" t="n">
         <v>500.3288951674331</v>
@@ -37399,7 +37399,7 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>219.1556674334648</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37408,7 +37408,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37566,7 +37566,7 @@
         <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37624,10 +37624,10 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>71.39556506237767</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
@@ -37636,13 +37636,13 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q39" t="n">
-        <v>219.1556674334648</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>37.00975247789214</v>
@@ -37776,7 +37776,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37861,7 +37861,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>35.97859357997653</v>
       </c>
       <c r="L42" t="n">
         <v>500.3288951674331</v>
@@ -37873,13 +37873,13 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>165.5609983721165</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,25 +38092,25 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>151.9123054782681</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38119,7 +38119,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_9_33.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_9_33.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2876382.490960917</v>
+        <v>2878143.021263702</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283183</v>
+        <v>416855.1052283182</v>
       </c>
     </row>
     <row r="9">
@@ -667,10 +667,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>12.28773869504415</v>
@@ -718,13 +718,13 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>285.7474141661222</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>222.7891134897422</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -816,10 +816,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>100.0826347325352</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -834,10 +834,10 @@
         <v>166.6385546828073</v>
       </c>
       <c r="H4" t="n">
-        <v>150.2028876639205</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>56.86095255690176</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,13 +864,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>116.4834600519698</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>222.1670476323163</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -879,7 +879,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -904,19 +904,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>247.2761215785791</v>
+        <v>11.52502338186934</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>64.83556544767967</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -949,7 +949,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>158.7162633552382</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -961,7 +961,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -995,7 +995,7 @@
         <v>92.71437374394026</v>
       </c>
       <c r="I6" t="n">
-        <v>19.80516901555393</v>
+        <v>19.80516901555391</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -1068,13 +1068,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.2964268507295</v>
+        <v>60.86538463674702</v>
       </c>
       <c r="H7" t="n">
-        <v>147.161060211447</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>104.4906595130011</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,13 +1101,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.1001486205444</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>194.4851693340911</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>39.39655401449938</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1116,10 +1116,10 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1138,7 +1138,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1189,7 +1189,7 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.0434357771752</v>
+        <v>13.94062309522512</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1198,7 +1198,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>117.5802289387322</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1299,7 +1299,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>100.5827519824192</v>
+        <v>100.5827519824194</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1372,7 +1372,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710084</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1533,7 +1533,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>80.08971311158757</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1542,13 +1542,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>162.1944220709586</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1596,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1669,7 +1669,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.2409687174136</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1779,13 +1779,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>27.02919805176109</v>
       </c>
       <c r="H16" t="n">
-        <v>83.06560892428212</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1894,10 +1894,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -2019,10 +2019,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>83.06560892428212</v>
+        <v>1.79977260571614</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2083,7 +2083,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710079</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>133.3722917337072</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -2247,7 +2247,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2256,7 +2256,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2295,7 +2295,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>245.8640357413588</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2478,7 +2478,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>110.0177171766865</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2493,7 +2493,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>83.06560892428212</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695571</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2730,7 +2730,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>83.06560892428213</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>160.1763464053468</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2967,7 +2967,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>83.06560892428213</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3009,7 +3009,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>194.9085394018866</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3192,7 +3192,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3207,7 +3207,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,13 +3234,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>9.146142788179931</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>177.6965697803355</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3316,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3426,16 +3426,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>110.0177171766865</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
@@ -3444,7 +3444,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3483,13 +3483,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>185.4048731212365</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3666,22 +3666,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703271</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3717,10 +3717,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3729,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>177.9413471369472</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -3906,19 +3906,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0.8253826161911274</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>66.85274231757823</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -3966,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4140,7 +4140,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4152,7 +4152,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4203,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>12.74007641194018</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>798.3854288869068</v>
+        <v>1588.214085525555</v>
       </c>
       <c r="C2" t="n">
-        <v>429.4229119464951</v>
+        <v>1219.251568585143</v>
       </c>
       <c r="D2" t="n">
-        <v>71.15721333974457</v>
+        <v>860.9858699783929</v>
       </c>
       <c r="E2" t="n">
-        <v>71.15721333974457</v>
+        <v>475.1976173801486</v>
       </c>
       <c r="F2" t="n">
-        <v>64.2117125905411</v>
+        <v>64.21171259054108</v>
       </c>
       <c r="G2" t="n">
         <v>51.79985532281972</v>
@@ -4330,25 +4330,25 @@
         <v>51.79985532281972</v>
       </c>
       <c r="J2" t="n">
-        <v>125.8997233870233</v>
+        <v>293.3053724073763</v>
       </c>
       <c r="K2" t="n">
-        <v>608.5986938974718</v>
+        <v>455.1003844723717</v>
       </c>
       <c r="L2" t="n">
-        <v>1092.198364333237</v>
+        <v>692.7231656905637</v>
       </c>
       <c r="M2" t="n">
-        <v>1388.26893089084</v>
+        <v>1333.746375310458</v>
       </c>
       <c r="N2" t="n">
-        <v>1693.744037126425</v>
+        <v>1974.769584930351</v>
       </c>
       <c r="O2" t="n">
-        <v>1968.86025644306</v>
+        <v>2249.885804246986</v>
       </c>
       <c r="P2" t="n">
-        <v>2487.745304821931</v>
+        <v>2450.190131536089</v>
       </c>
       <c r="Q2" t="n">
         <v>2589.992766140986</v>
@@ -4366,16 +4366,16 @@
         <v>2589.992766140986</v>
       </c>
       <c r="V2" t="n">
-        <v>2301.359014458034</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="W2" t="n">
-        <v>1948.59035918792</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="X2" t="n">
-        <v>1575.12460092684</v>
+        <v>2364.953257565488</v>
       </c>
       <c r="Y2" t="n">
-        <v>1184.985268951029</v>
+        <v>1974.813925589677</v>
       </c>
     </row>
     <row r="3">
@@ -4385,49 +4385,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>949.8902083093635</v>
+        <v>949.8902083093631</v>
       </c>
       <c r="C3" t="n">
-        <v>775.4371790282365</v>
+        <v>775.4371790282361</v>
       </c>
       <c r="D3" t="n">
-        <v>626.5027693669851</v>
+        <v>626.5027693669849</v>
       </c>
       <c r="E3" t="n">
-        <v>467.2653143615296</v>
+        <v>467.2653143615294</v>
       </c>
       <c r="F3" t="n">
-        <v>320.7307563884146</v>
+        <v>320.7307563884144</v>
       </c>
       <c r="G3" t="n">
         <v>183.6293921686806</v>
       </c>
       <c r="H3" t="n">
-        <v>85.9974213009382</v>
+        <v>85.99742130093836</v>
       </c>
       <c r="I3" t="n">
         <v>51.79985532281972</v>
       </c>
       <c r="J3" t="n">
-        <v>77.11538214995069</v>
+        <v>201.9455071369554</v>
       </c>
       <c r="K3" t="n">
-        <v>198.5384744202298</v>
+        <v>585.1891840496874</v>
       </c>
       <c r="L3" t="n">
-        <v>775.2612895234854</v>
+        <v>1161.911999152943</v>
       </c>
       <c r="M3" t="n">
-        <v>1082.633797470261</v>
+        <v>1425.851530648431</v>
       </c>
       <c r="N3" t="n">
-        <v>1723.657007090155</v>
+        <v>1711.185401081764</v>
       </c>
       <c r="O3" t="n">
-        <v>2352.385654925576</v>
+        <v>1949.990352833222</v>
       </c>
       <c r="P3" t="n">
-        <v>2524.714615879285</v>
+        <v>2316.738101020794</v>
       </c>
       <c r="Q3" t="n">
         <v>2589.992766140986</v>
@@ -4442,7 +4442,7 @@
         <v>2251.223226128891</v>
       </c>
       <c r="U3" t="n">
-        <v>2023.106809259863</v>
+        <v>2023.106809259862</v>
       </c>
       <c r="V3" t="n">
         <v>1787.95470102812</v>
@@ -4454,7 +4454,7 @@
         <v>1325.865844094385</v>
       </c>
       <c r="Y3" t="n">
-        <v>1118.105545329432</v>
+        <v>1118.105545329431</v>
       </c>
     </row>
     <row r="4">
@@ -4464,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>985.6975796996567</v>
+        <v>722.4766138353672</v>
       </c>
       <c r="C4" t="n">
-        <v>816.7613967717498</v>
+        <v>722.4766138353672</v>
       </c>
       <c r="D4" t="n">
-        <v>666.644757359414</v>
+        <v>572.3599744230314</v>
       </c>
       <c r="E4" t="n">
-        <v>518.7316637770209</v>
+        <v>424.4468808406383</v>
       </c>
       <c r="F4" t="n">
-        <v>371.8417162791105</v>
+        <v>277.5569333427279</v>
       </c>
       <c r="G4" t="n">
-        <v>203.5199438722344</v>
+        <v>109.2351609358518</v>
       </c>
       <c r="H4" t="n">
-        <v>51.79985532281972</v>
+        <v>109.2351609358518</v>
       </c>
       <c r="I4" t="n">
         <v>51.79985532281972</v>
       </c>
       <c r="J4" t="n">
-        <v>54.03452733018416</v>
+        <v>54.03452733018415</v>
       </c>
       <c r="K4" t="n">
         <v>187.5436166159875</v>
@@ -4512,28 +4512,28 @@
         <v>1311.202309361123</v>
       </c>
       <c r="R4" t="n">
-        <v>1311.202309361123</v>
+        <v>1193.542248702568</v>
       </c>
       <c r="S4" t="n">
-        <v>1311.202309361123</v>
+        <v>1193.542248702568</v>
       </c>
       <c r="T4" t="n">
-        <v>1086.791150136561</v>
+        <v>1193.542248702568</v>
       </c>
       <c r="U4" t="n">
-        <v>1086.791150136561</v>
+        <v>1193.542248702568</v>
       </c>
       <c r="V4" t="n">
-        <v>1086.791150136561</v>
+        <v>1193.542248702568</v>
       </c>
       <c r="W4" t="n">
-        <v>1086.791150136561</v>
+        <v>904.1250786656069</v>
       </c>
       <c r="X4" t="n">
-        <v>1086.791150136561</v>
+        <v>904.1250786656069</v>
       </c>
       <c r="Y4" t="n">
-        <v>1086.791150136561</v>
+        <v>904.1250786656069</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1439.787835839972</v>
+        <v>1652.934136166469</v>
       </c>
       <c r="C5" t="n">
-        <v>1070.825318899561</v>
+        <v>1283.971619226057</v>
       </c>
       <c r="D5" t="n">
-        <v>712.5596202928102</v>
+        <v>925.7059206193069</v>
       </c>
       <c r="E5" t="n">
-        <v>712.5596202928102</v>
+        <v>539.9176680210627</v>
       </c>
       <c r="F5" t="n">
-        <v>301.5737155032027</v>
+        <v>128.9317632314551</v>
       </c>
       <c r="G5" t="n">
-        <v>51.79985532281972</v>
+        <v>117.2903254719911</v>
       </c>
       <c r="H5" t="n">
-        <v>51.79985532281972</v>
+        <v>117.2903254719911</v>
       </c>
       <c r="I5" t="n">
-        <v>51.79985532281972</v>
+        <v>51.79985532281973</v>
       </c>
       <c r="J5" t="n">
-        <v>189.9868871104779</v>
+        <v>189.9868871104781</v>
       </c>
       <c r="K5" t="n">
-        <v>447.8319447135509</v>
+        <v>447.8319447135512</v>
       </c>
       <c r="L5" t="n">
-        <v>804.6133007477383</v>
+        <v>804.6133007477388</v>
       </c>
       <c r="M5" t="n">
-        <v>1233.270741187502</v>
+        <v>1233.270741187503</v>
       </c>
       <c r="N5" t="n">
-        <v>1673.478115539971</v>
+        <v>1673.478115539972</v>
       </c>
       <c r="O5" t="n">
-        <v>2075.818195082061</v>
+        <v>2075.818195082062</v>
       </c>
       <c r="P5" t="n">
-        <v>2384.705143645557</v>
+        <v>2384.705143645558</v>
       </c>
       <c r="Q5" t="n">
-        <v>2568.493631507462</v>
+        <v>2568.493631507463</v>
       </c>
       <c r="R5" t="n">
-        <v>2589.992766140986</v>
+        <v>2589.992766140987</v>
       </c>
       <c r="S5" t="n">
-        <v>2589.992766140986</v>
+        <v>2589.992766140987</v>
       </c>
       <c r="T5" t="n">
-        <v>2589.992766140986</v>
+        <v>2429.673308206402</v>
       </c>
       <c r="U5" t="n">
-        <v>2589.992766140986</v>
+        <v>2429.673308206402</v>
       </c>
       <c r="V5" t="n">
-        <v>2589.992766140986</v>
+        <v>2429.673308206402</v>
       </c>
       <c r="W5" t="n">
-        <v>2589.992766140986</v>
+        <v>2429.673308206402</v>
       </c>
       <c r="X5" t="n">
-        <v>2216.527007879906</v>
+        <v>2429.673308206402</v>
       </c>
       <c r="Y5" t="n">
-        <v>1826.387675904094</v>
+        <v>2039.533976230591</v>
       </c>
     </row>
     <row r="6">
@@ -4643,28 +4643,28 @@
         <v>71.80507655065196</v>
       </c>
       <c r="I6" t="n">
-        <v>51.79985532281972</v>
+        <v>51.79985532281973</v>
       </c>
       <c r="J6" t="n">
-        <v>240.1153828096209</v>
+        <v>115.2852578226162</v>
       </c>
       <c r="K6" t="n">
-        <v>598.8031573431335</v>
+        <v>563.7673318682818</v>
       </c>
       <c r="L6" t="n">
-        <v>896.1151064594483</v>
+        <v>1104.091621317938</v>
       </c>
       <c r="M6" t="n">
-        <v>1262.420995951774</v>
+        <v>1470.397510810264</v>
       </c>
       <c r="N6" t="n">
-        <v>1652.830557277516</v>
+        <v>1860.807072136006</v>
       </c>
       <c r="O6" t="n">
-        <v>1987.759237993047</v>
+        <v>2195.735752851538</v>
       </c>
       <c r="P6" t="n">
-        <v>2237.235965858066</v>
+        <v>2445.212480716556</v>
       </c>
       <c r="Q6" t="n">
         <v>2562.061870084021</v>
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1087.825563768798</v>
+        <v>727.1359052451305</v>
       </c>
       <c r="C7" t="n">
-        <v>918.8893808408909</v>
+        <v>558.1997223172236</v>
       </c>
       <c r="D7" t="n">
-        <v>768.7727414285552</v>
+        <v>408.0830829048879</v>
       </c>
       <c r="E7" t="n">
-        <v>620.859647846162</v>
+        <v>260.1699893224948</v>
       </c>
       <c r="F7" t="n">
-        <v>473.9697003482516</v>
+        <v>113.2800418245844</v>
       </c>
       <c r="G7" t="n">
-        <v>305.993511610141</v>
+        <v>51.79985532281973</v>
       </c>
       <c r="H7" t="n">
-        <v>157.3459760430229</v>
+        <v>51.79985532281973</v>
       </c>
       <c r="I7" t="n">
-        <v>51.79985532281972</v>
+        <v>51.79985532281973</v>
       </c>
       <c r="J7" t="n">
-        <v>77.98108068080549</v>
+        <v>77.98108068080555</v>
       </c>
       <c r="K7" t="n">
-        <v>250.8417132121972</v>
+        <v>250.8417132121973</v>
       </c>
       <c r="L7" t="n">
-        <v>527.5702436225444</v>
+        <v>527.5702436225445</v>
       </c>
       <c r="M7" t="n">
-        <v>829.7308018317422</v>
+        <v>829.7308018317424</v>
       </c>
       <c r="N7" t="n">
-        <v>1130.141273750633</v>
+        <v>1130.141273750634</v>
       </c>
       <c r="O7" t="n">
         <v>1391.602671897099</v>
       </c>
       <c r="P7" t="n">
-        <v>1591.80738463481</v>
+        <v>1591.807384634811</v>
       </c>
       <c r="Q7" t="n">
         <v>1646.983670153878</v>
       </c>
       <c r="R7" t="n">
-        <v>1544.862307910904</v>
+        <v>1646.983670153878</v>
       </c>
       <c r="S7" t="n">
-        <v>1348.412641916873</v>
+        <v>1646.983670153878</v>
       </c>
       <c r="T7" t="n">
-        <v>1308.618142912328</v>
+        <v>1646.983670153878</v>
       </c>
       <c r="U7" t="n">
-        <v>1308.618142912328</v>
+        <v>1646.983670153878</v>
       </c>
       <c r="V7" t="n">
-        <v>1308.618142912328</v>
+        <v>1646.983670153878</v>
       </c>
       <c r="W7" t="n">
-        <v>1308.618142912328</v>
+        <v>1357.566500116918</v>
       </c>
       <c r="X7" t="n">
-        <v>1308.618142912328</v>
+        <v>1129.5769492189</v>
       </c>
       <c r="Y7" t="n">
-        <v>1087.825563768798</v>
+        <v>908.7843700753702</v>
       </c>
     </row>
     <row r="8">
@@ -4780,10 +4780,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1147.214247386505</v>
+        <v>1505.479945993255</v>
       </c>
       <c r="C8" t="n">
-        <v>778.251730446093</v>
+        <v>1136.517429052843</v>
       </c>
       <c r="D8" t="n">
         <v>778.251730446093</v>
@@ -4810,16 +4810,16 @@
         <v>447.831944713551</v>
       </c>
       <c r="L8" t="n">
-        <v>804.6133007477388</v>
+        <v>804.6133007477383</v>
       </c>
       <c r="M8" t="n">
-        <v>1233.270741187503</v>
+        <v>1233.270741187502</v>
       </c>
       <c r="N8" t="n">
-        <v>1673.478115539972</v>
+        <v>1673.478115539971</v>
       </c>
       <c r="O8" t="n">
-        <v>2075.818195082062</v>
+        <v>2075.818195082061</v>
       </c>
       <c r="P8" t="n">
         <v>2384.705143645557</v>
@@ -4837,19 +4837,19 @@
         <v>2589.992766140986</v>
       </c>
       <c r="U8" t="n">
-        <v>2336.413538083233</v>
+        <v>2575.911328671062</v>
       </c>
       <c r="V8" t="n">
-        <v>2005.350650739662</v>
+        <v>2244.848441327491</v>
       </c>
       <c r="W8" t="n">
-        <v>1652.581995469548</v>
+        <v>1892.079786057377</v>
       </c>
       <c r="X8" t="n">
-        <v>1533.814087450626</v>
+        <v>1892.079786057377</v>
       </c>
       <c r="Y8" t="n">
-        <v>1533.814087450626</v>
+        <v>1892.079786057377</v>
       </c>
     </row>
     <row r="9">
@@ -4868,16 +4868,16 @@
         <v>607.9171255411325</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6796705356769</v>
+        <v>448.679670535677</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1451125625619</v>
+        <v>302.145112562562</v>
       </c>
       <c r="G9" t="n">
         <v>165.4559591202886</v>
       </c>
       <c r="H9" t="n">
-        <v>71.80507655065196</v>
+        <v>71.80507655065198</v>
       </c>
       <c r="I9" t="n">
         <v>51.79985532281972</v>
@@ -4938,13 +4938,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>472.4514170392433</v>
+        <v>472.4514170392436</v>
       </c>
       <c r="C10" t="n">
-        <v>303.5152341113364</v>
+        <v>303.5152341113367</v>
       </c>
       <c r="D10" t="n">
-        <v>153.3985946990007</v>
+        <v>153.3985946990009</v>
       </c>
       <c r="E10" t="n">
         <v>51.79985532281972</v>
@@ -4962,25 +4962,25 @@
         <v>51.79985532281972</v>
       </c>
       <c r="J10" t="n">
-        <v>77.98108068080549</v>
+        <v>77.9810806808055</v>
       </c>
       <c r="K10" t="n">
         <v>250.8417132121972</v>
       </c>
       <c r="L10" t="n">
-        <v>527.5702436225444</v>
+        <v>527.5702436225445</v>
       </c>
       <c r="M10" t="n">
-        <v>829.7308018317422</v>
+        <v>829.7308018317423</v>
       </c>
       <c r="N10" t="n">
-        <v>1130.141273750633</v>
+        <v>1130.141273750634</v>
       </c>
       <c r="O10" t="n">
         <v>1391.602671897099</v>
       </c>
       <c r="P10" t="n">
-        <v>1591.80738463481</v>
+        <v>1591.807384634811</v>
       </c>
       <c r="Q10" t="n">
         <v>1646.983670153878</v>
@@ -5004,10 +5004,10 @@
         <v>1102.882011911031</v>
       </c>
       <c r="X10" t="n">
-        <v>874.8924610130132</v>
+        <v>874.8924610130134</v>
       </c>
       <c r="Y10" t="n">
-        <v>654.0998818694831</v>
+        <v>654.0998818694833</v>
       </c>
     </row>
     <row r="11">
@@ -5020,7 +5020,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5029,61 +5029,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.8166630479719</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,28 +5114,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1074.481071167373</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N12" t="n">
-        <v>1702.07903472198</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O12" t="n">
-        <v>2253.988764961267</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>734.6461798836018</v>
+        <v>800.5007694647277</v>
       </c>
       <c r="C13" t="n">
-        <v>565.7099969556949</v>
+        <v>631.5645865368208</v>
       </c>
       <c r="D13" t="n">
-        <v>484.8112968429802</v>
+        <v>481.447947124485</v>
       </c>
       <c r="E13" t="n">
-        <v>484.8112968429802</v>
+        <v>481.447947124485</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429802</v>
+        <v>481.447947124485</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854707</v>
+        <v>1975.033022579363</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.70136564882</v>
+        <v>1720.348534373476</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611859</v>
+        <v>1430.931364336515</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138415</v>
+        <v>1202.941813438498</v>
       </c>
       <c r="Y13" t="n">
-        <v>916.2946447138415</v>
+        <v>982.1492342949674</v>
       </c>
     </row>
     <row r="14">
@@ -5272,16 +5272,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J14" t="n">
-        <v>378.192580311171</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5296,25 +5296,25 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
         <v>3467.980956852889</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,28 +5351,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516144</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L15" t="n">
-        <v>1074.481071167373</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="M15" t="n">
-        <v>1671.859558793925</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N15" t="n">
-        <v>2299.457522348532</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D16" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E16" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F16" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G16" t="n">
-        <v>177.7213185270447</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5515,34 +5515,34 @@
         <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.192580311171</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
         <v>4405.252601474784</v>
@@ -5551,13 +5551,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,16 +5588,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
         <v>1074.481071167373</v>
@@ -5606,7 +5606,7 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G19" t="n">
-        <v>177.7213185270447</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5746,13 +5746,13 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192603</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K20" t="n">
         <v>852.8523611075811</v>
@@ -5770,31 +5770,31 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,7 +5825,7 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
         <v>95.58405025273906</v>
@@ -5834,16 +5834,16 @@
         <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>409.1360811687895</v>
+        <v>352.5519571452603</v>
       </c>
       <c r="L21" t="n">
-        <v>904.4616873845483</v>
+        <v>352.5519571452603</v>
       </c>
       <c r="M21" t="n">
-        <v>1501.8401750111</v>
+        <v>949.9304447718124</v>
       </c>
       <c r="N21" t="n">
-        <v>2129.438138565707</v>
+        <v>1577.528408326419</v>
       </c>
       <c r="O21" t="n">
         <v>2129.438138565707</v>
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>554.5813165460164</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C22" t="n">
-        <v>385.6451336181095</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D22" t="n">
-        <v>235.5284942057738</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E22" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F22" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782958</v>
@@ -5919,7 +5919,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N22" t="n">
         <v>1665.560112570818</v>
@@ -5928,13 +5928,13 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q22" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S22" t="n">
         <v>2197.062545487568</v>
@@ -5943,19 +5943,19 @@
         <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1729.113569660651</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1474.429081454764</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1185.011911417804</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>957.0223605197863</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y22" t="n">
-        <v>736.2297813762561</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="23">
@@ -5983,34 +5983,34 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192603</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6053,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6062,7 +6062,7 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
         <v>95.58405025273906</v>
@@ -6071,19 +6071,19 @@
         <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>409.1360811687895</v>
+        <v>579.1554649516145</v>
       </c>
       <c r="L24" t="n">
-        <v>904.4616873845483</v>
+        <v>776.1751066403286</v>
       </c>
       <c r="M24" t="n">
-        <v>1501.8401750111</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N24" t="n">
-        <v>2129.438138565707</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O24" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
         <v>2553.061288060775</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G25" t="n">
-        <v>177.7213185270447</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782958</v>
@@ -6156,7 +6156,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N25" t="n">
         <v>1665.560112570818</v>
@@ -6165,13 +6165,13 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q25" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S25" t="n">
         <v>2197.062545487568</v>
@@ -6189,10 +6189,10 @@
         <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138415</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="26">
@@ -6211,46 +6211,46 @@
         <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S26" t="n">
         <v>4606.285157492578</v>
@@ -6262,13 +6262,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6290,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6299,25 +6299,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468473</v>
       </c>
       <c r="L27" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400717</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G28" t="n">
-        <v>177.7213185270447</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782958</v>
@@ -6393,7 +6393,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N28" t="n">
         <v>1665.560112570818</v>
@@ -6402,34 +6402,34 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q28" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S28" t="n">
         <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510509</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854707</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.70136564882</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611859</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138415</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703114</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="29">
@@ -6451,22 +6451,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111709</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075804</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6478,10 +6478,10 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
         <v>4562.265728852255</v>
@@ -6539,13 +6539,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J30" t="n">
         <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516145</v>
       </c>
       <c r="L30" t="n">
         <v>1074.481071167373</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400717</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G31" t="n">
-        <v>177.7213185270447</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6630,7 +6630,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N31" t="n">
         <v>1665.560112570818</v>
@@ -6639,13 +6639,13 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q31" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S31" t="n">
         <v>2197.062545487568</v>
@@ -6657,16 +6657,16 @@
         <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.70136564882</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611859</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138415</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703114</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="32">
@@ -6697,19 +6697,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192603</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
         <v>2950.898526355938</v>
@@ -6718,10 +6718,10 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6776,22 +6776,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468473</v>
       </c>
       <c r="L33" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>571.6607764188008</v>
+        <v>803.8641191832228</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908938</v>
+        <v>634.9279362553159</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6867,7 +6867,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N34" t="n">
         <v>1665.560112570818</v>
@@ -6876,34 +6876,34 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q34" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>2437.724555511392</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S34" t="n">
-        <v>2254.869721166297</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T34" t="n">
-        <v>2035.268256189238</v>
+        <v>2267.47159895366</v>
       </c>
       <c r="U34" t="n">
-        <v>1746.193029533436</v>
+        <v>1978.396372297858</v>
       </c>
       <c r="V34" t="n">
-        <v>1491.508541327549</v>
+        <v>1723.711884091971</v>
       </c>
       <c r="W34" t="n">
-        <v>1202.091371290588</v>
+        <v>1434.29471405501</v>
       </c>
       <c r="X34" t="n">
-        <v>974.1018203925706</v>
+        <v>1206.305163156993</v>
       </c>
       <c r="Y34" t="n">
-        <v>753.3092412490405</v>
+        <v>985.5125840134625</v>
       </c>
     </row>
     <row r="35">
@@ -6925,7 +6925,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616861</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
@@ -6934,31 +6934,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192603</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -7013,22 +7013,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J36" t="n">
         <v>245.2306927803938</v>
       </c>
       <c r="K36" t="n">
-        <v>280.8495004245705</v>
+        <v>579.1554649516145</v>
       </c>
       <c r="L36" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1098.667160263526</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="C37" t="n">
-        <v>929.7309773356194</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D37" t="n">
-        <v>779.6143379232836</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E37" t="n">
-        <v>631.7012443408905</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7104,7 +7104,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N37" t="n">
         <v>1665.560112570818</v>
@@ -7113,13 +7113,13 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q37" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S37" t="n">
         <v>2197.062545487568</v>
@@ -7131,16 +7131,16 @@
         <v>1688.385853854707</v>
       </c>
       <c r="V37" t="n">
-        <v>1688.385853854707</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W37" t="n">
-        <v>1501.108204237296</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>1501.108204237296</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y37" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="38">
@@ -7162,34 +7162,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694708</v>
@@ -7256,19 +7256,19 @@
         <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>245.2306927803938</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L39" t="n">
-        <v>315.9123021921476</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>913.2907898186995</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1540.888753373306</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>2092.798483612593</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P39" t="n">
         <v>2516.421633107662</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1098.667160263526</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C40" t="n">
-        <v>929.7309773356194</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D40" t="n">
-        <v>779.6143379232836</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E40" t="n">
-        <v>631.7012443408905</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7365,19 +7365,19 @@
         <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>1977.461080510509</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V40" t="n">
-        <v>1977.461080510509</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W40" t="n">
-        <v>1688.043910473548</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X40" t="n">
-        <v>1460.054359575531</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y40" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="41">
@@ -7402,37 +7402,37 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7447,13 +7447,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7487,22 +7487,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>280.8495004245705</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
         <v>2553.061288060775</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>580.0655846733346</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C43" t="n">
-        <v>411.1294017454277</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D43" t="n">
-        <v>261.0127623330919</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E43" t="n">
-        <v>261.0127623330919</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F43" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.129363765926</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>2263.274529420831</v>
+        <v>2379.435061037252</v>
       </c>
       <c r="T43" t="n">
-        <v>2043.673064443772</v>
+        <v>2159.833596060193</v>
       </c>
       <c r="U43" t="n">
-        <v>1754.597837787969</v>
+        <v>1870.758369404391</v>
       </c>
       <c r="V43" t="n">
-        <v>1499.913349582082</v>
+        <v>1616.073881198505</v>
       </c>
       <c r="W43" t="n">
-        <v>1210.496179545122</v>
+        <v>1326.656711161544</v>
       </c>
       <c r="X43" t="n">
-        <v>982.5066286471044</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="Y43" t="n">
-        <v>761.7140495035743</v>
+        <v>1098.667160263527</v>
       </c>
     </row>
     <row r="44">
@@ -7642,28 +7642,28 @@
         <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J44" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7724,13 +7724,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L45" t="n">
         <v>1074.481071167373</v>
@@ -7739,7 +7739,7 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O45" t="n">
         <v>2553.061288060775</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>721.7774158311365</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C46" t="n">
-        <v>552.8412329032296</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7806,52 +7806,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y46" t="n">
-        <v>903.4258806613763</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
   </sheetData>
@@ -7978,28 +7978,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>248.4615042601748</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>348.4370131942333</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>338.9374781659682</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>37.93451847054686</v>
       </c>
       <c r="R2" t="n">
         <v>26.19461818159724</v>
@@ -8057,28 +8057,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>43.87169338513883</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>359.282160794506</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>196.3826133675373</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,13 +8294,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>173.7639243740404</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>245.4670104377188</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8315,10 +8315,10 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>20.18437503906578</v>
+        <v>20.18437503906576</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -9424,7 +9424,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>-8.966669107403908e-14</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9646,7 +9646,7 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>-1.972915003185951e-13</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -9661,7 +9661,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>-8.966669107403908e-14</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -10372,7 +10372,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>-8.966669107403908e-14</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -23421,7 +23421,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>68.52575990662478</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -23430,7 +23430,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>3.329716221310264</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23463,13 +23463,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23667,13 +23667,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="H16" t="n">
-        <v>57.22910392194174</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23907,10 +23907,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>57.22910392194174</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>46.45968844823005</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24135,7 +24135,7 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24144,10 +24144,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24183,7 +24183,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>40.32043864788537</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24366,7 +24366,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>57.22910392194132</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24381,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>57.22910392194174</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24618,10 +24618,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24654,7 +24654,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>57.22910392194146</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24855,10 +24855,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24897,7 +24897,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>57.22910392194137</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25080,7 +25080,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25095,7 +25095,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,13 +25122,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>57.22910392194173</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>39.7088805469528</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25314,16 +25314,16 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>57.22910392194132</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25332,7 +25332,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25371,13 +25371,13 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>101.1181252153545</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25554,22 +25554,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25605,10 +25605,10 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>40.64330621514762</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -25794,19 +25794,19 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>65.54986409393054</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>114.1735436840664</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26028,7 +26028,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26040,10 +26040,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>205.8445769401546</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>752100.1003983667</v>
+        <v>752100.1003983668</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>752100.1003983666</v>
+        <v>752100.1003983667</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>752100.1003983666</v>
+        <v>752100.1003983667</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>752100.1003983666</v>
+        <v>752100.1003983667</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>752100.1003983666</v>
+        <v>752100.1003983667</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>752100.1003983666</v>
+        <v>752100.1003983667</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>752100.1003983666</v>
+        <v>752100.1003983668</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>752100.1003983668</v>
+        <v>752100.1003983666</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>752100.1003983666</v>
+        <v>752100.1003983667</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>752100.1003983667</v>
+        <v>752100.1003983666</v>
       </c>
     </row>
   </sheetData>
@@ -26313,25 +26313,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>677359.4601380335</v>
+        <v>677359.4601380337</v>
       </c>
       <c r="C2" t="n">
-        <v>677359.460138034</v>
+        <v>677359.4601380342</v>
       </c>
       <c r="D2" t="n">
-        <v>677359.460138034</v>
+        <v>677359.4601380338</v>
       </c>
       <c r="E2" t="n">
         <v>665895.944744255</v>
       </c>
       <c r="F2" t="n">
+        <v>665895.9447442548</v>
+      </c>
+      <c r="G2" t="n">
+        <v>665895.9447442548</v>
+      </c>
+      <c r="H2" t="n">
         <v>665895.9447442553</v>
-      </c>
-      <c r="G2" t="n">
-        <v>665895.9447442555</v>
-      </c>
-      <c r="H2" t="n">
-        <v>665895.9447442552</v>
       </c>
       <c r="I2" t="n">
         <v>665895.9447442554</v>
@@ -26340,22 +26340,22 @@
         <v>665895.944744255</v>
       </c>
       <c r="K2" t="n">
-        <v>665895.9447442553</v>
+        <v>665895.944744255</v>
       </c>
       <c r="L2" t="n">
-        <v>665895.9447442553</v>
+        <v>665895.9447442552</v>
       </c>
       <c r="M2" t="n">
-        <v>665895.944744255</v>
+        <v>665895.9447442552</v>
       </c>
       <c r="N2" t="n">
-        <v>665895.9447442554</v>
+        <v>665895.9447442552</v>
       </c>
       <c r="O2" t="n">
-        <v>665895.944744255</v>
+        <v>665895.9447442548</v>
       </c>
       <c r="P2" t="n">
-        <v>665895.9447442548</v>
+        <v>665895.9447442552</v>
       </c>
     </row>
     <row r="3">
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>939682.9358753987</v>
+        <v>939682.9358753986</v>
       </c>
       <c r="C3" t="n">
-        <v>172764.3597898924</v>
+        <v>172764.3597898926</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>500888.8677457509</v>
+        <v>500888.8677457506</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26383,13 +26383,13 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>3.482032298052218e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>169414.016826048</v>
+        <v>169414.0168260481</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>130884.4569042353</v>
+        <v>130884.4569042352</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26407,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>1.513344614068046e-10</v>
       </c>
     </row>
     <row r="4">
@@ -26423,34 +26423,34 @@
         <v>129066.7547252479</v>
       </c>
       <c r="D4" t="n">
-        <v>129066.754725248</v>
+        <v>129066.7547252479</v>
       </c>
       <c r="E4" t="n">
-        <v>6287.480531695014</v>
+        <v>6287.480531695052</v>
       </c>
       <c r="F4" t="n">
+        <v>6287.480531695051</v>
+      </c>
+      <c r="G4" t="n">
         <v>6287.480531695052</v>
       </c>
-      <c r="G4" t="n">
-        <v>6287.480531694995</v>
-      </c>
       <c r="H4" t="n">
-        <v>6287.480531695052</v>
+        <v>6287.480531695024</v>
       </c>
       <c r="I4" t="n">
         <v>6287.480531695024</v>
       </c>
       <c r="J4" t="n">
+        <v>6287.480531695031</v>
+      </c>
+      <c r="K4" t="n">
         <v>6287.480531695052</v>
       </c>
-      <c r="K4" t="n">
-        <v>6287.480531695035</v>
-      </c>
       <c r="L4" t="n">
-        <v>6287.480531695052</v>
+        <v>6287.480531695024</v>
       </c>
       <c r="M4" t="n">
-        <v>6287.480531695052</v>
+        <v>6287.480531695051</v>
       </c>
       <c r="N4" t="n">
         <v>6287.480531695051</v>
@@ -26459,7 +26459,7 @@
         <v>6287.480531695052</v>
       </c>
       <c r="P4" t="n">
-        <v>6287.480531695052</v>
+        <v>6287.480531695051</v>
       </c>
     </row>
     <row r="5">
@@ -26472,7 +26472,7 @@
         <v>89345.0748969909</v>
       </c>
       <c r="C5" t="n">
-        <v>93481.0893615096</v>
+        <v>93481.08936150961</v>
       </c>
       <c r="D5" t="n">
         <v>93481.0893615096</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-511454.389449516</v>
+        <v>-511454.3894495156</v>
       </c>
       <c r="C6" t="n">
         <v>282047.2562613841</v>
       </c>
       <c r="D6" t="n">
-        <v>454811.6160512764</v>
+        <v>454811.6160512765</v>
       </c>
       <c r="E6" t="n">
-        <v>57249.68738854511</v>
+        <v>57562.32871746659</v>
       </c>
       <c r="F6" t="n">
-        <v>558138.5551342962</v>
+        <v>558451.196463217</v>
       </c>
       <c r="G6" t="n">
-        <v>558138.5551342964</v>
+        <v>558451.196463217</v>
       </c>
       <c r="H6" t="n">
-        <v>558138.555134296</v>
+        <v>558451.196463217</v>
       </c>
       <c r="I6" t="n">
-        <v>558138.5551342962</v>
+        <v>558451.1964632175</v>
       </c>
       <c r="J6" t="n">
-        <v>388724.5383082479</v>
+        <v>389037.1796371691</v>
       </c>
       <c r="K6" t="n">
-        <v>558138.5551342962</v>
+        <v>558451.1964632173</v>
       </c>
       <c r="L6" t="n">
-        <v>558138.5551342962</v>
+        <v>558451.1964632173</v>
       </c>
       <c r="M6" t="n">
-        <v>427254.0982300606</v>
+        <v>427566.7395589821</v>
       </c>
       <c r="N6" t="n">
-        <v>558138.5551342963</v>
+        <v>558451.1964632175</v>
       </c>
       <c r="O6" t="n">
-        <v>558138.555134296</v>
+        <v>558451.1964632171</v>
       </c>
       <c r="P6" t="n">
-        <v>558138.5551342958</v>
+        <v>558451.1964632173</v>
       </c>
     </row>
   </sheetData>
@@ -26740,7 +26740,7 @@
         <v>749.9809564976108</v>
       </c>
       <c r="C3" t="n">
-        <v>939.7063906498446</v>
+        <v>939.7063906498448</v>
       </c>
       <c r="D3" t="n">
         <v>939.7063906498446</v>
@@ -26789,31 +26789,31 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>647.4981915352464</v>
+      </c>
+      <c r="C4" t="n">
+        <v>647.4981915352466</v>
+      </c>
+      <c r="D4" t="n">
         <v>647.4981915352465</v>
       </c>
-      <c r="C4" t="n">
-        <v>647.4981915352464</v>
-      </c>
-      <c r="D4" t="n">
-        <v>647.4981915352464</v>
-      </c>
       <c r="E4" t="n">
+        <v>1172.708288099648</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1172.708288099648</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1172.708288099648</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1172.708288099648</v>
+      </c>
+      <c r="I4" t="n">
+        <v>1172.708288099648</v>
+      </c>
+      <c r="J4" t="n">
         <v>1172.708288099649</v>
-      </c>
-      <c r="F4" t="n">
-        <v>1172.708288099649</v>
-      </c>
-      <c r="G4" t="n">
-        <v>1172.708288099649</v>
-      </c>
-      <c r="H4" t="n">
-        <v>1172.708288099649</v>
-      </c>
-      <c r="I4" t="n">
-        <v>1172.708288099649</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
@@ -26962,13 +26962,13 @@
         <v>749.9809564976108</v>
       </c>
       <c r="C3" t="n">
-        <v>189.7254341522338</v>
+        <v>189.725434152234</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>428.2691096918294</v>
+        <v>428.2691096918292</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26977,7 +26977,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27001,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
     </row>
     <row r="4">
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>647.4981915352465</v>
+        <v>647.4981915352464</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>525.2100965644022</v>
+        <v>525.2100965644019</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>647.4981915352464</v>
+        <v>647.4981915352466</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>525.2100965644022</v>
+        <v>525.2100965644019</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>647.4981915352465</v>
+        <v>647.4981915352464</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>525.2100965644022</v>
+        <v>525.2100965644019</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27387,10 +27387,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
@@ -27438,13 +27438,13 @@
         <v>251.1044530022292</v>
       </c>
       <c r="V2" t="n">
-        <v>42.00484430401275</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>146.9419871887268</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27536,10 +27536,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>79.74934544940214</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27554,10 +27554,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>150.2028876639205</v>
       </c>
       <c r="I4" t="n">
-        <v>114.7793764994862</v>
+        <v>57.91842394258444</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,13 +27584,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>116.4834600519698</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>200.4475243713015</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>222.1670476323163</v>
       </c>
       <c r="U4" t="n">
         <v>286.245260737819</v>
@@ -27599,7 +27599,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27624,19 +27624,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>164.2489018032902</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>300.7862872484598</v>
       </c>
       <c r="I5" t="n">
-        <v>64.83556544767973</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27669,7 +27669,7 @@
         <v>122.935408774453</v>
       </c>
       <c r="T5" t="n">
-        <v>206.5589059457607</v>
+        <v>47.8426425905225</v>
       </c>
       <c r="U5" t="n">
         <v>251.0434357771752</v>
@@ -27681,7 +27681,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27773,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27788,13 +27788,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>105.4310422139825</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>147.161060211447</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>104.4906595130011</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,13 +27821,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>101.1001486205444</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>194.4851693340911</v>
       </c>
       <c r="T7" t="n">
-        <v>181.3086746989391</v>
+        <v>220.7052287134384</v>
       </c>
       <c r="U7" t="n">
         <v>286.2265992197056</v>
@@ -27836,10 +27836,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27858,7 +27858,7 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -27909,7 +27909,7 @@
         <v>206.5589059457607</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>237.1028126819501</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27918,7 +27918,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>252.1508717397369</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -28019,7 +28019,7 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>45.85121066415</v>
+        <v>45.85121066414978</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28092,7 +28092,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>-8.360392837795219e-13</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -31278,43 +31278,43 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.777714133265704</v>
+        <v>3.777714133265705</v>
       </c>
       <c r="H5" t="n">
-        <v>38.6885148673074</v>
+        <v>38.68851486730741</v>
       </c>
       <c r="I5" t="n">
         <v>145.6403241227262</v>
       </c>
       <c r="J5" t="n">
-        <v>320.6287649182603</v>
+        <v>320.6287649182604</v>
       </c>
       <c r="K5" t="n">
-        <v>480.5394041793977</v>
+        <v>480.5394041793978</v>
       </c>
       <c r="L5" t="n">
-        <v>596.1516230853281</v>
+        <v>596.1516230853282</v>
       </c>
       <c r="M5" t="n">
-        <v>663.3335468027921</v>
+        <v>663.3335468027922</v>
       </c>
       <c r="N5" t="n">
-        <v>674.0669770839332</v>
+        <v>674.0669770839335</v>
       </c>
       <c r="O5" t="n">
-        <v>636.5023321712724</v>
+        <v>636.5023321712725</v>
       </c>
       <c r="P5" t="n">
-        <v>543.2400145062752</v>
+        <v>543.2400145062753</v>
       </c>
       <c r="Q5" t="n">
-        <v>407.9506271086971</v>
+        <v>407.9506271086972</v>
       </c>
       <c r="R5" t="n">
         <v>237.301835423752</v>
       </c>
       <c r="S5" t="n">
-        <v>86.08466081179232</v>
+        <v>86.08466081179233</v>
       </c>
       <c r="T5" t="n">
         <v>16.53694361837063</v>
@@ -31357,31 +31357,31 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.021255255360043</v>
+        <v>2.021255255360044</v>
       </c>
       <c r="H6" t="n">
         <v>19.52107049255621</v>
       </c>
       <c r="I6" t="n">
-        <v>69.59146383586115</v>
+        <v>69.59146383586116</v>
       </c>
       <c r="J6" t="n">
-        <v>190.9642958583802</v>
+        <v>190.9642958583803</v>
       </c>
       <c r="K6" t="n">
-        <v>326.3883979675031</v>
+        <v>326.3883979675032</v>
       </c>
       <c r="L6" t="n">
-        <v>438.8694798973638</v>
+        <v>438.8694798973639</v>
       </c>
       <c r="M6" t="n">
-        <v>512.1399829041652</v>
+        <v>512.1399829041653</v>
       </c>
       <c r="N6" t="n">
-        <v>525.6948043315579</v>
+        <v>525.694804331558</v>
       </c>
       <c r="O6" t="n">
-        <v>480.9080431470011</v>
+        <v>480.9080431470013</v>
       </c>
       <c r="P6" t="n">
         <v>385.9711022274806</v>
@@ -31393,13 +31393,13 @@
         <v>125.4951289248982</v>
       </c>
       <c r="S6" t="n">
-        <v>37.5439298528499</v>
+        <v>37.54392985284991</v>
       </c>
       <c r="T6" t="n">
-        <v>8.147077103841575</v>
+        <v>8.147077103841577</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1329773194315818</v>
+        <v>0.1329773194315819</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31442,7 +31442,7 @@
         <v>15.0661122959926</v>
       </c>
       <c r="I7" t="n">
-        <v>50.95981541425716</v>
+        <v>50.95981541425717</v>
       </c>
       <c r="J7" t="n">
         <v>119.8048622964564</v>
@@ -31451,7 +31451,7 @@
         <v>196.8761913525412</v>
       </c>
       <c r="L7" t="n">
-        <v>251.9337428309436</v>
+        <v>251.9337428309437</v>
       </c>
       <c r="M7" t="n">
         <v>265.6288080979552</v>
@@ -31463,22 +31463,22 @@
         <v>239.5172944561277</v>
       </c>
       <c r="P7" t="n">
-        <v>204.9484232984512</v>
+        <v>204.9484232984513</v>
       </c>
       <c r="Q7" t="n">
-        <v>141.8956649881265</v>
+        <v>141.8956649881266</v>
       </c>
       <c r="R7" t="n">
-        <v>76.19324275662508</v>
+        <v>76.1932427566251</v>
       </c>
       <c r="S7" t="n">
-        <v>29.53142870288117</v>
+        <v>29.53142870288118</v>
       </c>
       <c r="T7" t="n">
-        <v>7.240360714843062</v>
+        <v>7.240360714843064</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09243013678523071</v>
+        <v>0.09243013678523074</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,10 +31831,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>101.3076196007749</v>
@@ -31843,22 +31843,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>444.2274915982894</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>436.0678650906011</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -31867,13 +31867,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,10 +32068,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>101.3076196007749</v>
@@ -32080,22 +32080,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>246.9596973201446</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32104,13 +32104,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,10 +32305,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>101.3076196007749</v>
@@ -32317,19 +32317,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>463.9598929192557</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,40 +32463,40 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H20" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S20" t="n">
         <v>125.3175546292901</v>
@@ -32505,7 +32505,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32554,22 +32554,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>303.4024373464759</v>
+        <v>246.2467565146281</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214699</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -32578,7 +32578,7 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
@@ -32621,13 +32621,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H22" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J22" t="n">
         <v>174.4056633796262</v>
@@ -32645,7 +32645,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P22" t="n">
         <v>298.3532140417315</v>
@@ -32657,7 +32657,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
@@ -32700,40 +32700,40 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H23" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J23" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S23" t="n">
         <v>125.3175546292901</v>
@@ -32742,7 +32742,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U23" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32791,22 +32791,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>303.4024373464759</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>337.5641188593834</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -32815,7 +32815,7 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
@@ -32858,13 +32858,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H25" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J25" t="n">
         <v>174.4056633796262</v>
@@ -32882,7 +32882,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P25" t="n">
         <v>298.3532140417315</v>
@@ -32894,7 +32894,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
@@ -32937,40 +32937,40 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H26" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J26" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S26" t="n">
         <v>125.3175546292901</v>
@@ -32979,7 +32979,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U26" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33022,25 +33022,25 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O27" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565758</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33052,7 +33052,7 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
@@ -33095,13 +33095,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H28" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J28" t="n">
         <v>174.4056633796262</v>
@@ -33119,7 +33119,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P28" t="n">
         <v>298.3532140417315</v>
@@ -33131,7 +33131,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
@@ -33174,40 +33174,40 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H29" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J29" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S29" t="n">
         <v>125.3175546292901</v>
@@ -33216,7 +33216,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U29" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33265,19 +33265,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O30" t="n">
-        <v>398.7616643558013</v>
+        <v>398.7616643558009</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33289,7 +33289,7 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
@@ -33332,13 +33332,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H31" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J31" t="n">
         <v>174.4056633796262</v>
@@ -33356,7 +33356,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P31" t="n">
         <v>298.3532140417315</v>
@@ -33368,7 +33368,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
@@ -33411,40 +33411,40 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H32" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S32" t="n">
         <v>125.3175546292901</v>
@@ -33453,7 +33453,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U32" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33496,25 +33496,25 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O33" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565758</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33526,7 +33526,7 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
@@ -33569,13 +33569,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H34" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J34" t="n">
         <v>174.4056633796262</v>
@@ -33593,7 +33593,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P34" t="n">
         <v>298.3532140417315</v>
@@ -33605,7 +33605,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
@@ -33648,40 +33648,40 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H35" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043711</v>
       </c>
       <c r="S35" t="n">
         <v>125.3175546292901</v>
@@ -33690,7 +33690,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U35" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33739,19 +33739,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>173.8200325543355</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558009</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33763,7 +33763,7 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
@@ -33806,13 +33806,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H37" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J37" t="n">
         <v>174.4056633796262</v>
@@ -33830,7 +33830,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P37" t="n">
         <v>298.3532140417315</v>
@@ -33842,7 +33842,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
@@ -33976,10 +33976,10 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>209.9499448422519</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862122</v>
@@ -33988,10 +33988,10 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>361.7519118779092</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -34122,43 +34122,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,10 +34201,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
         <v>101.3076196007749</v>
@@ -34213,19 +34213,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>173.8200325543355</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34237,13 +34237,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34371,31 +34371,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,10 +34438,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
         <v>101.3076196007749</v>
@@ -34450,19 +34450,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O45" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34474,13 +34474,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>74.84835158000359</v>
+        <v>243.9449667520774</v>
       </c>
       <c r="K2" t="n">
-        <v>487.5747176873218</v>
+        <v>163.429305116157</v>
       </c>
       <c r="L2" t="n">
-        <v>488.4845155916819</v>
+        <v>240.0230113315071</v>
       </c>
       <c r="M2" t="n">
-        <v>299.0611783410131</v>
+        <v>647.4981915352464</v>
       </c>
       <c r="N2" t="n">
-        <v>308.5607133692782</v>
+        <v>647.4981915352464</v>
       </c>
       <c r="O2" t="n">
         <v>277.8951710269035</v>
       </c>
       <c r="P2" t="n">
-        <v>524.1263114938092</v>
+        <v>202.3276033223266</v>
       </c>
       <c r="Q2" t="n">
-        <v>103.2802639586414</v>
+        <v>141.2147824291883</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>25.57123921932421</v>
+        <v>151.662274559733</v>
       </c>
       <c r="K3" t="n">
-        <v>122.649588151797</v>
+        <v>387.1148251643756</v>
       </c>
       <c r="L3" t="n">
         <v>582.5482980840966</v>
       </c>
       <c r="M3" t="n">
-        <v>310.4772807543184</v>
+        <v>266.6055873691795</v>
       </c>
       <c r="N3" t="n">
-        <v>647.4981915352465</v>
+        <v>288.2160307407405</v>
       </c>
       <c r="O3" t="n">
-        <v>635.0794422580011</v>
+        <v>241.2171229812715</v>
       </c>
       <c r="P3" t="n">
-        <v>174.0696575289998</v>
+        <v>370.4522708965371</v>
       </c>
       <c r="Q3" t="n">
-        <v>65.9375255168697</v>
+        <v>276.0148132527188</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34938,28 +34938,28 @@
         <v>139.5828603915741</v>
       </c>
       <c r="K5" t="n">
-        <v>260.4495531344172</v>
+        <v>260.4495531344173</v>
       </c>
       <c r="L5" t="n">
-        <v>360.3852081153408</v>
+        <v>360.385208115341</v>
       </c>
       <c r="M5" t="n">
-        <v>432.9873135755194</v>
+        <v>432.9873135755195</v>
       </c>
       <c r="N5" t="n">
-        <v>444.6539134873423</v>
+        <v>444.6539134873425</v>
       </c>
       <c r="O5" t="n">
-        <v>406.4041207495857</v>
+        <v>406.4041207495858</v>
       </c>
       <c r="P5" t="n">
-        <v>312.0070187510057</v>
+        <v>312.0070187510058</v>
       </c>
       <c r="Q5" t="n">
-        <v>185.6449372342476</v>
+        <v>185.6449372342477</v>
       </c>
       <c r="R5" t="n">
-        <v>21.71629760961986</v>
+        <v>21.71629760961991</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>190.2177045321224</v>
+        <v>64.1266691917136</v>
       </c>
       <c r="K6" t="n">
-        <v>362.3108833671845</v>
+        <v>453.0121960057228</v>
       </c>
       <c r="L6" t="n">
-        <v>300.3151001174896</v>
+        <v>545.7821105552085</v>
       </c>
       <c r="M6" t="n">
-        <v>370.0059489821469</v>
+        <v>370.005948982147</v>
       </c>
       <c r="N6" t="n">
-        <v>394.3530922482246</v>
+        <v>394.3530922482247</v>
       </c>
       <c r="O6" t="n">
-        <v>338.3117987025567</v>
+        <v>338.3117987025568</v>
       </c>
       <c r="P6" t="n">
-        <v>251.9966948131503</v>
+        <v>251.9966948131504</v>
       </c>
       <c r="Q6" t="n">
-        <v>328.1069739656114</v>
+        <v>118.0296862297623</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,13 +35093,13 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>26.44568217978362</v>
+        <v>26.44568217978365</v>
       </c>
       <c r="K7" t="n">
         <v>174.6066995266583</v>
       </c>
       <c r="L7" t="n">
-        <v>279.5237680912597</v>
+        <v>279.5237680912598</v>
       </c>
       <c r="M7" t="n">
         <v>305.2126850597958</v>
@@ -35108,13 +35108,13 @@
         <v>303.4449211301933</v>
       </c>
       <c r="O7" t="n">
-        <v>264.1024223701673</v>
+        <v>264.1024223701674</v>
       </c>
       <c r="P7" t="n">
-        <v>202.2269825633447</v>
+        <v>202.2269825633448</v>
       </c>
       <c r="Q7" t="n">
-        <v>55.73362173643214</v>
+        <v>55.73362173643217</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
         <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,7 +35485,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
@@ -35494,19 +35494,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>302.093457676271</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>302.0934576762708</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396415</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,28 +35722,28 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>108.4053175402704</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396415</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35968,16 +35968,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>332.6181808359224</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J20" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P20" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.866084390239</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,28 +36196,28 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K21" t="n">
-        <v>165.5609983721169</v>
+        <v>108.4053175402692</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36278,7 +36278,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K22" t="n">
         <v>264.332588409635</v>
@@ -36290,7 +36290,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O22" t="n">
         <v>373.2618997060455</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J23" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902934</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P23" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.866084390239</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,28 +36433,28 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K24" t="n">
-        <v>165.5609983721169</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>199.0097390795092</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36515,7 +36515,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K25" t="n">
         <v>264.332588409635</v>
@@ -36527,7 +36527,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O25" t="n">
         <v>373.2618997060455</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J26" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P26" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,25 +36670,25 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O27" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121313</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36752,7 +36752,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K28" t="n">
         <v>264.332588409635</v>
@@ -36764,7 +36764,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O28" t="n">
         <v>373.2618997060455</v>
@@ -36828,31 +36828,31 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J29" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P29" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924719</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R29" t="n">
         <v>129.8660843902405</v>
@@ -36907,25 +36907,25 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O30" t="n">
-        <v>256.1654199113569</v>
+        <v>256.1654199113564</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -36989,7 +36989,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K31" t="n">
         <v>264.332588409635</v>
@@ -37001,7 +37001,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O31" t="n">
         <v>373.2618997060455</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J32" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P32" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902399</v>
+        <v>129.866084390239</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,25 +37144,25 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O33" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121313</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37226,7 +37226,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K34" t="n">
         <v>264.332588409635</v>
@@ -37238,7 +37238,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O34" t="n">
         <v>373.2618997060455</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J35" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P35" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.866084390239</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,25 +37381,25 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K36" t="n">
-        <v>35.97859357997653</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113564</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37463,7 +37463,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K37" t="n">
         <v>264.332588409635</v>
@@ -37475,7 +37475,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O37" t="n">
         <v>373.2618997060455</v>
@@ -37566,7 +37566,7 @@
         <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37624,10 +37624,10 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>71.39556506237767</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
@@ -37636,10 +37636,10 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>219.1556674334648</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,25 +37855,25 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>35.97859357997653</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38101,16 +38101,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O45" t="n">
-        <v>256.1654199113569</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
